--- a/ch_02/ch_02.xlsx
+++ b/ch_02/ch_02.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D6ED0-7CB4-4AAA-91B5-30E6886349E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF668F3-1CF1-4DF5-B6BF-1C4EE2CD5388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{74D39968-1C19-4E83-835D-2153A2EDE06B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="3" r:id="rId1"/>
+    <sheet name="housing" sheetId="1" r:id="rId2"/>
+    <sheet name="penguins" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="77">
   <si>
     <t>price</t>
   </si>
@@ -157,11 +159,125 @@
   <si>
     <t>MeadowV</t>
   </si>
+  <si>
+    <t>emp_first</t>
+  </si>
+  <si>
+    <t>emp_last</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>sales_amt</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Halpert</t>
+  </si>
+  <si>
+    <t>Copy Paper</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Printer Ink</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Envelopes</t>
+  </si>
+  <si>
+    <t>Legal Pads</t>
+  </si>
+  <si>
+    <t>File folders</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>Rubber bands</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>bill_length_mm</t>
+  </si>
+  <si>
+    <t>bill_depth_mm</t>
+  </si>
+  <si>
+    <t>flipper_length_mm</t>
+  </si>
+  <si>
+    <t>body_mass_g</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Adelie</t>
+  </si>
+  <si>
+    <t>Torgersen</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Biscoe</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Gentoo</t>
+  </si>
+  <si>
+    <t>Chinstrap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -191,8 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +328,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88C3E9FF-9ABD-4338-8A9B-FB27E009824B}" name="sales" displayName="sales" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{88C3E9FF-9ABD-4338-8A9B-FB27E009824B}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{E7B206CB-8D6C-4997-8D93-49AC54891905}" name="emp_first"/>
+    <tableColumn id="3" xr3:uid="{E323BF39-6B66-479D-86C3-B997396AA8F9}" name="emp_last"/>
+    <tableColumn id="4" xr3:uid="{DC925F2C-4F2F-4A8B-A9AB-842D43AD1C6F}" name="product"/>
+    <tableColumn id="5" xr3:uid="{35107529-EEFD-47D8-8843-135CC4957A92}" name="quantity"/>
+    <tableColumn id="6" xr3:uid="{9525FCA6-EB30-43C0-A1C6-C81E0B96D714}" name="sales_amt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB8EA2F-05A5-4759-BFD2-BF429F5CC5BA}" name="housing" displayName="housing" ref="A1:M547" totalsRowShown="0">
   <autoFilter ref="A1:M547" xr:uid="{6CB8EA2F-05A5-4759-BFD2-BF429F5CC5BA}"/>
   <tableColumns count="13">
@@ -227,6 +358,23 @@
     <tableColumn id="12" xr3:uid="{B35AB38E-7AAF-4B3A-8962-EBC626FFE80C}" name="garagepl"/>
     <tableColumn id="13" xr3:uid="{D0F39B7A-3EA4-4296-BBA7-61F0E6435C2C}" name="prefarea"/>
     <tableColumn id="14" xr3:uid="{68398A12-3CFC-47E6-9B5A-B0F67FFBDFA8}" name="neighborhood"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC8397CB-0ACF-4974-9521-A06D047BF000}" name="penguins" displayName="penguins" ref="A1:H334" totalsRowShown="0">
+  <autoFilter ref="A1:H334" xr:uid="{FC8397CB-0ACF-4974-9521-A06D047BF000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6FB36603-E41F-43B0-8F80-CE59A8E15D65}" name="species"/>
+    <tableColumn id="2" xr3:uid="{ABB5B021-EA8C-47F9-B93B-18E957511B74}" name="island"/>
+    <tableColumn id="3" xr3:uid="{5353ED5E-86F7-42C6-935B-2579CC737EC0}" name="bill_length_mm"/>
+    <tableColumn id="4" xr3:uid="{F772BBA4-CDCD-4380-A4B1-081032CFB7C5}" name="bill_depth_mm"/>
+    <tableColumn id="5" xr3:uid="{D4DDD5D5-7535-4C24-A9A7-DFC5F41B25C9}" name="flipper_length_mm"/>
+    <tableColumn id="6" xr3:uid="{C559E423-FCD2-44FD-B4D2-D4DBA1A17F23}" name="body_mass_g"/>
+    <tableColumn id="7" xr3:uid="{3785C424-BE18-4585-95B4-4DFE032981C3}" name="sex"/>
+    <tableColumn id="8" xr3:uid="{EB20CADF-3BEE-4727-AE00-2D926106358A}" name="year"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,12 +676,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDAD2A-5730-4A27-896C-AA81286B9D15}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="10.04296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.04296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>74.849999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839E8793-AF89-4421-A377-4B9432DA50B4}">
   <dimension ref="A1:M547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:M547"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -22962,6 +23405,8708 @@
       </c>
       <c r="M547" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08218E-BB65-4D4E-8560-85DA88395E02}">
+  <dimension ref="A1:H334"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>39.1</v>
+      </c>
+      <c r="D2">
+        <v>18.7</v>
+      </c>
+      <c r="E2">
+        <v>181</v>
+      </c>
+      <c r="F2">
+        <v>3750</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>39.5</v>
+      </c>
+      <c r="D3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>186</v>
+      </c>
+      <c r="F3">
+        <v>3800</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>195</v>
+      </c>
+      <c r="F4">
+        <v>3250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D5">
+        <v>19.3</v>
+      </c>
+      <c r="E5">
+        <v>193</v>
+      </c>
+      <c r="F5">
+        <v>3450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D6">
+        <v>20.6</v>
+      </c>
+      <c r="E6">
+        <v>190</v>
+      </c>
+      <c r="F6">
+        <v>3650</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>38.9</v>
+      </c>
+      <c r="D7">
+        <v>17.8</v>
+      </c>
+      <c r="E7">
+        <v>181</v>
+      </c>
+      <c r="F7">
+        <v>3625</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E8">
+        <v>195</v>
+      </c>
+      <c r="F8">
+        <v>4675</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>41.1</v>
+      </c>
+      <c r="D9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E9">
+        <v>182</v>
+      </c>
+      <c r="F9">
+        <v>3200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>38.6</v>
+      </c>
+      <c r="D10">
+        <v>21.2</v>
+      </c>
+      <c r="E10">
+        <v>191</v>
+      </c>
+      <c r="F10">
+        <v>3800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>34.6</v>
+      </c>
+      <c r="D11">
+        <v>21.1</v>
+      </c>
+      <c r="E11">
+        <v>198</v>
+      </c>
+      <c r="F11">
+        <v>4400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>36.6</v>
+      </c>
+      <c r="D12">
+        <v>17.8</v>
+      </c>
+      <c r="E12">
+        <v>185</v>
+      </c>
+      <c r="F12">
+        <v>3700</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>195</v>
+      </c>
+      <c r="F13">
+        <v>3450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>42.5</v>
+      </c>
+      <c r="D14">
+        <v>20.7</v>
+      </c>
+      <c r="E14">
+        <v>197</v>
+      </c>
+      <c r="F14">
+        <v>4500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>34.4</v>
+      </c>
+      <c r="D15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E15">
+        <v>184</v>
+      </c>
+      <c r="F15">
+        <v>3325</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>21.5</v>
+      </c>
+      <c r="E16">
+        <v>194</v>
+      </c>
+      <c r="F16">
+        <v>4200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D17">
+        <v>18.3</v>
+      </c>
+      <c r="E17">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>3400</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D18">
+        <v>18.7</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>3600</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>35.9</v>
+      </c>
+      <c r="D19">
+        <v>19.2</v>
+      </c>
+      <c r="E19">
+        <v>189</v>
+      </c>
+      <c r="F19">
+        <v>3800</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D20">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E20">
+        <v>185</v>
+      </c>
+      <c r="F20">
+        <v>3950</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D21">
+        <v>17.2</v>
+      </c>
+      <c r="E21">
+        <v>180</v>
+      </c>
+      <c r="F21">
+        <v>3800</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E22">
+        <v>187</v>
+      </c>
+      <c r="F22">
+        <v>3800</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>40.6</v>
+      </c>
+      <c r="D23">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E23">
+        <v>183</v>
+      </c>
+      <c r="F23">
+        <v>3550</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>40.5</v>
+      </c>
+      <c r="D24">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>187</v>
+      </c>
+      <c r="F24">
+        <v>3200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25">
+        <v>37.9</v>
+      </c>
+      <c r="D25">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E25">
+        <v>172</v>
+      </c>
+      <c r="F25">
+        <v>3150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>40.5</v>
+      </c>
+      <c r="D26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E26">
+        <v>180</v>
+      </c>
+      <c r="F26">
+        <v>3950</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>39.5</v>
+      </c>
+      <c r="D27">
+        <v>16.7</v>
+      </c>
+      <c r="E27">
+        <v>178</v>
+      </c>
+      <c r="F27">
+        <v>3250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D28">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E28">
+        <v>178</v>
+      </c>
+      <c r="F28">
+        <v>3900</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>39.5</v>
+      </c>
+      <c r="D29">
+        <v>17.8</v>
+      </c>
+      <c r="E29">
+        <v>188</v>
+      </c>
+      <c r="F29">
+        <v>3300</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>40.9</v>
+      </c>
+      <c r="D30">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E30">
+        <v>184</v>
+      </c>
+      <c r="F30">
+        <v>3900</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>36.4</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>195</v>
+      </c>
+      <c r="F31">
+        <v>3325</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D32">
+        <v>21.1</v>
+      </c>
+      <c r="E32">
+        <v>196</v>
+      </c>
+      <c r="F32">
+        <v>4150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>190</v>
+      </c>
+      <c r="F33">
+        <v>3950</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>42.2</v>
+      </c>
+      <c r="D34">
+        <v>18.5</v>
+      </c>
+      <c r="E34">
+        <v>180</v>
+      </c>
+      <c r="F34">
+        <v>3550</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>37.6</v>
+      </c>
+      <c r="D35">
+        <v>19.3</v>
+      </c>
+      <c r="E35">
+        <v>181</v>
+      </c>
+      <c r="F35">
+        <v>3300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D36">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E36">
+        <v>184</v>
+      </c>
+      <c r="F36">
+        <v>4650</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>36.5</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>182</v>
+      </c>
+      <c r="F37">
+        <v>3150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D38">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E38">
+        <v>195</v>
+      </c>
+      <c r="F38">
+        <v>3900</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>18.5</v>
+      </c>
+      <c r="E39">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>3100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>44.1</v>
+      </c>
+      <c r="D40">
+        <v>19.7</v>
+      </c>
+      <c r="E40">
+        <v>196</v>
+      </c>
+      <c r="F40">
+        <v>4400</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>185</v>
+      </c>
+      <c r="F41">
+        <v>3000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>39.6</v>
+      </c>
+      <c r="D42">
+        <v>18.8</v>
+      </c>
+      <c r="E42">
+        <v>190</v>
+      </c>
+      <c r="F42">
+        <v>4600</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43">
+        <v>41.1</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>182</v>
+      </c>
+      <c r="F43">
+        <v>3425</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E44">
+        <v>190</v>
+      </c>
+      <c r="F44">
+        <v>3450</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45">
+        <v>42.3</v>
+      </c>
+      <c r="D45">
+        <v>21.2</v>
+      </c>
+      <c r="E45">
+        <v>191</v>
+      </c>
+      <c r="F45">
+        <v>4150</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>39.6</v>
+      </c>
+      <c r="D46">
+        <v>17.7</v>
+      </c>
+      <c r="E46">
+        <v>186</v>
+      </c>
+      <c r="F46">
+        <v>3500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>40.1</v>
+      </c>
+      <c r="D47">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E47">
+        <v>188</v>
+      </c>
+      <c r="F47">
+        <v>4300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E48">
+        <v>190</v>
+      </c>
+      <c r="F48">
+        <v>3450</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>19.5</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>4050</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>34.5</v>
+      </c>
+      <c r="D50">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E50">
+        <v>187</v>
+      </c>
+      <c r="F50">
+        <v>2900</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>41.4</v>
+      </c>
+      <c r="D51">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E51">
+        <v>191</v>
+      </c>
+      <c r="F51">
+        <v>3700</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>17.5</v>
+      </c>
+      <c r="E52">
+        <v>186</v>
+      </c>
+      <c r="F52">
+        <v>3550</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>40.6</v>
+      </c>
+      <c r="D53">
+        <v>18.8</v>
+      </c>
+      <c r="E53">
+        <v>193</v>
+      </c>
+      <c r="F53">
+        <v>3800</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>36.5</v>
+      </c>
+      <c r="D54">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E54">
+        <v>181</v>
+      </c>
+      <c r="F54">
+        <v>2850</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>37.6</v>
+      </c>
+      <c r="D55">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E55">
+        <v>194</v>
+      </c>
+      <c r="F55">
+        <v>3750</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D56">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E56">
+        <v>185</v>
+      </c>
+      <c r="F56">
+        <v>3150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57">
+        <v>41.3</v>
+      </c>
+      <c r="D57">
+        <v>21.1</v>
+      </c>
+      <c r="E57">
+        <v>195</v>
+      </c>
+      <c r="F57">
+        <v>4400</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>37.6</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>185</v>
+      </c>
+      <c r="F58">
+        <v>3600</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>41.1</v>
+      </c>
+      <c r="D59">
+        <v>18.2</v>
+      </c>
+      <c r="E59">
+        <v>192</v>
+      </c>
+      <c r="F59">
+        <v>4050</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>36.4</v>
+      </c>
+      <c r="D60">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E60">
+        <v>184</v>
+      </c>
+      <c r="F60">
+        <v>2850</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>41.6</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>192</v>
+      </c>
+      <c r="F61">
+        <v>3950</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>35.5</v>
+      </c>
+      <c r="D62">
+        <v>16.2</v>
+      </c>
+      <c r="E62">
+        <v>195</v>
+      </c>
+      <c r="F62">
+        <v>3350</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>41.1</v>
+      </c>
+      <c r="D63">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E63">
+        <v>188</v>
+      </c>
+      <c r="F63">
+        <v>4100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>35.9</v>
+      </c>
+      <c r="D64">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E64">
+        <v>190</v>
+      </c>
+      <c r="F64">
+        <v>3050</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>41.8</v>
+      </c>
+      <c r="D65">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E65">
+        <v>198</v>
+      </c>
+      <c r="F65">
+        <v>4450</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>33.5</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>190</v>
+      </c>
+      <c r="F66">
+        <v>3600</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D67">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E67">
+        <v>190</v>
+      </c>
+      <c r="F67">
+        <v>3900</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>39.6</v>
+      </c>
+      <c r="D68">
+        <v>17.2</v>
+      </c>
+      <c r="E68">
+        <v>196</v>
+      </c>
+      <c r="F68">
+        <v>3550</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>45.8</v>
+      </c>
+      <c r="D69">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E69">
+        <v>197</v>
+      </c>
+      <c r="F69">
+        <v>4150</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>35.5</v>
+      </c>
+      <c r="D70">
+        <v>17.5</v>
+      </c>
+      <c r="E70">
+        <v>190</v>
+      </c>
+      <c r="F70">
+        <v>3700</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>42.8</v>
+      </c>
+      <c r="D71">
+        <v>18.5</v>
+      </c>
+      <c r="E71">
+        <v>195</v>
+      </c>
+      <c r="F71">
+        <v>4250</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>40.9</v>
+      </c>
+      <c r="D72">
+        <v>16.8</v>
+      </c>
+      <c r="E72">
+        <v>191</v>
+      </c>
+      <c r="F72">
+        <v>3700</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D73">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E73">
+        <v>184</v>
+      </c>
+      <c r="F73">
+        <v>3900</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D74">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E74">
+        <v>187</v>
+      </c>
+      <c r="F74">
+        <v>3550</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <v>42.1</v>
+      </c>
+      <c r="D75">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E75">
+        <v>195</v>
+      </c>
+      <c r="F75">
+        <v>4000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>34.6</v>
+      </c>
+      <c r="D76">
+        <v>17.2</v>
+      </c>
+      <c r="E76">
+        <v>189</v>
+      </c>
+      <c r="F76">
+        <v>3200</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <v>42.9</v>
+      </c>
+      <c r="D77">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E77">
+        <v>196</v>
+      </c>
+      <c r="F77">
+        <v>4700</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D78">
+        <v>18.8</v>
+      </c>
+      <c r="E78">
+        <v>187</v>
+      </c>
+      <c r="F78">
+        <v>3800</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79">
+        <v>35.1</v>
+      </c>
+      <c r="D79">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E79">
+        <v>193</v>
+      </c>
+      <c r="F79">
+        <v>4200</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D80">
+        <v>17.8</v>
+      </c>
+      <c r="E80">
+        <v>191</v>
+      </c>
+      <c r="F80">
+        <v>3350</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81">
+        <v>41.3</v>
+      </c>
+      <c r="D81">
+        <v>20.3</v>
+      </c>
+      <c r="E81">
+        <v>194</v>
+      </c>
+      <c r="F81">
+        <v>3550</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D82">
+        <v>19.5</v>
+      </c>
+      <c r="E82">
+        <v>190</v>
+      </c>
+      <c r="F82">
+        <v>3800</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <v>36.9</v>
+      </c>
+      <c r="D83">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E83">
+        <v>189</v>
+      </c>
+      <c r="F83">
+        <v>3500</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D84">
+        <v>19.2</v>
+      </c>
+      <c r="E84">
+        <v>189</v>
+      </c>
+      <c r="F84">
+        <v>3950</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85">
+        <v>38.9</v>
+      </c>
+      <c r="D85">
+        <v>18.8</v>
+      </c>
+      <c r="E85">
+        <v>190</v>
+      </c>
+      <c r="F85">
+        <v>3600</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>202</v>
+      </c>
+      <c r="F86">
+        <v>3550</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>41.1</v>
+      </c>
+      <c r="D87">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E87">
+        <v>205</v>
+      </c>
+      <c r="F87">
+        <v>4300</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88">
+        <v>34</v>
+      </c>
+      <c r="D88">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E88">
+        <v>185</v>
+      </c>
+      <c r="F88">
+        <v>3400</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89">
+        <v>39.6</v>
+      </c>
+      <c r="D89">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E89">
+        <v>186</v>
+      </c>
+      <c r="F89">
+        <v>4450</v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D90">
+        <v>17.3</v>
+      </c>
+      <c r="E90">
+        <v>187</v>
+      </c>
+      <c r="F90">
+        <v>3300</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D91">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E91">
+        <v>208</v>
+      </c>
+      <c r="F91">
+        <v>4300</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92">
+        <v>38.1</v>
+      </c>
+      <c r="D92">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E92">
+        <v>190</v>
+      </c>
+      <c r="F92">
+        <v>3700</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D93">
+        <v>18.5</v>
+      </c>
+      <c r="E93">
+        <v>196</v>
+      </c>
+      <c r="F93">
+        <v>4350</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A94" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94">
+        <v>33.1</v>
+      </c>
+      <c r="D94">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E94">
+        <v>178</v>
+      </c>
+      <c r="F94">
+        <v>2900</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95">
+        <v>43.2</v>
+      </c>
+      <c r="D95">
+        <v>18.5</v>
+      </c>
+      <c r="E95">
+        <v>192</v>
+      </c>
+      <c r="F95">
+        <v>4100</v>
+      </c>
+      <c r="G95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E96">
+        <v>192</v>
+      </c>
+      <c r="F96">
+        <v>3725</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>203</v>
+      </c>
+      <c r="F97">
+        <v>4725</v>
+      </c>
+      <c r="G97" t="s">
+        <v>71</v>
+      </c>
+      <c r="H97">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D98">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>183</v>
+      </c>
+      <c r="F98">
+        <v>3075</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A99" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>190</v>
+      </c>
+      <c r="F99">
+        <v>4250</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100">
+        <v>37.9</v>
+      </c>
+      <c r="D100">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E100">
+        <v>193</v>
+      </c>
+      <c r="F100">
+        <v>2925</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D101">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E101">
+        <v>184</v>
+      </c>
+      <c r="F101">
+        <v>3550</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102">
+        <v>38.6</v>
+      </c>
+      <c r="D102">
+        <v>17.2</v>
+      </c>
+      <c r="E102">
+        <v>199</v>
+      </c>
+      <c r="F102">
+        <v>3750</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>190</v>
+      </c>
+      <c r="F103">
+        <v>3900</v>
+      </c>
+      <c r="G103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104">
+        <v>38.1</v>
+      </c>
+      <c r="D104">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>181</v>
+      </c>
+      <c r="F104">
+        <v>3175</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105">
+        <v>43.2</v>
+      </c>
+      <c r="D105">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>197</v>
+      </c>
+      <c r="F105">
+        <v>4775</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106">
+        <v>38.1</v>
+      </c>
+      <c r="D106">
+        <v>16.5</v>
+      </c>
+      <c r="E106">
+        <v>198</v>
+      </c>
+      <c r="F106">
+        <v>3825</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A107" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107">
+        <v>45.6</v>
+      </c>
+      <c r="D107">
+        <v>20.3</v>
+      </c>
+      <c r="E107">
+        <v>191</v>
+      </c>
+      <c r="F107">
+        <v>4600</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D108">
+        <v>17.7</v>
+      </c>
+      <c r="E108">
+        <v>193</v>
+      </c>
+      <c r="F108">
+        <v>3200</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109">
+        <v>42.2</v>
+      </c>
+      <c r="D109">
+        <v>19.5</v>
+      </c>
+      <c r="E109">
+        <v>197</v>
+      </c>
+      <c r="F109">
+        <v>4275</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>39.6</v>
+      </c>
+      <c r="D110">
+        <v>20.7</v>
+      </c>
+      <c r="E110">
+        <v>191</v>
+      </c>
+      <c r="F110">
+        <v>3900</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111">
+        <v>42.7</v>
+      </c>
+      <c r="D111">
+        <v>18.3</v>
+      </c>
+      <c r="E111">
+        <v>196</v>
+      </c>
+      <c r="F111">
+        <v>4075</v>
+      </c>
+      <c r="G111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112">
+        <v>38.6</v>
+      </c>
+      <c r="D112">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>188</v>
+      </c>
+      <c r="F112">
+        <v>2900</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D113">
+        <v>20.5</v>
+      </c>
+      <c r="E113">
+        <v>199</v>
+      </c>
+      <c r="F113">
+        <v>3775</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D114">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>189</v>
+      </c>
+      <c r="F114">
+        <v>3350</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115">
+        <v>41.1</v>
+      </c>
+      <c r="D115">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E115">
+        <v>189</v>
+      </c>
+      <c r="F115">
+        <v>3325</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D116">
+        <v>17.2</v>
+      </c>
+      <c r="E116">
+        <v>187</v>
+      </c>
+      <c r="F116">
+        <v>3150</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D117">
+        <v>19.8</v>
+      </c>
+      <c r="E117">
+        <v>198</v>
+      </c>
+      <c r="F117">
+        <v>3500</v>
+      </c>
+      <c r="G117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A118" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D118">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>176</v>
+      </c>
+      <c r="F118">
+        <v>3450</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A119" t="s">
+        <v>69</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119">
+        <v>41.4</v>
+      </c>
+      <c r="D119">
+        <v>18.5</v>
+      </c>
+      <c r="E119">
+        <v>202</v>
+      </c>
+      <c r="F119">
+        <v>3875</v>
+      </c>
+      <c r="G119" t="s">
+        <v>71</v>
+      </c>
+      <c r="H119">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D120">
+        <v>15.9</v>
+      </c>
+      <c r="E120">
+        <v>186</v>
+      </c>
+      <c r="F120">
+        <v>3050</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121">
+        <v>40.6</v>
+      </c>
+      <c r="D121">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>199</v>
+      </c>
+      <c r="F121">
+        <v>4000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D122">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E122">
+        <v>191</v>
+      </c>
+      <c r="F122">
+        <v>3275</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123">
+        <v>41.5</v>
+      </c>
+      <c r="D123">
+        <v>18.3</v>
+      </c>
+      <c r="E123">
+        <v>195</v>
+      </c>
+      <c r="F123">
+        <v>4300</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A124" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124">
+        <v>39</v>
+      </c>
+      <c r="D124">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E124">
+        <v>191</v>
+      </c>
+      <c r="F124">
+        <v>3050</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A125" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125">
+        <v>44.1</v>
+      </c>
+      <c r="D125">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>210</v>
+      </c>
+      <c r="F125">
+        <v>4000</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A126" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126">
+        <v>38.5</v>
+      </c>
+      <c r="D126">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E126">
+        <v>190</v>
+      </c>
+      <c r="F126">
+        <v>3325</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127">
+        <v>43.1</v>
+      </c>
+      <c r="D127">
+        <v>19.2</v>
+      </c>
+      <c r="E127">
+        <v>197</v>
+      </c>
+      <c r="F127">
+        <v>3500</v>
+      </c>
+      <c r="G127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D128">
+        <v>18.5</v>
+      </c>
+      <c r="E128">
+        <v>193</v>
+      </c>
+      <c r="F128">
+        <v>3500</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129">
+        <v>37.5</v>
+      </c>
+      <c r="D129">
+        <v>18.5</v>
+      </c>
+      <c r="E129">
+        <v>199</v>
+      </c>
+      <c r="F129">
+        <v>4475</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130">
+        <v>38.1</v>
+      </c>
+      <c r="D130">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E130">
+        <v>187</v>
+      </c>
+      <c r="F130">
+        <v>3425</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A131" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131">
+        <v>41.1</v>
+      </c>
+      <c r="D131">
+        <v>17.5</v>
+      </c>
+      <c r="E131">
+        <v>190</v>
+      </c>
+      <c r="F131">
+        <v>3900</v>
+      </c>
+      <c r="G131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132">
+        <v>35.6</v>
+      </c>
+      <c r="D132">
+        <v>17.5</v>
+      </c>
+      <c r="E132">
+        <v>191</v>
+      </c>
+      <c r="F132">
+        <v>3175</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A133" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D133">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E133">
+        <v>200</v>
+      </c>
+      <c r="F133">
+        <v>3975</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134">
+        <v>37</v>
+      </c>
+      <c r="D134">
+        <v>16.5</v>
+      </c>
+      <c r="E134">
+        <v>185</v>
+      </c>
+      <c r="F134">
+        <v>3400</v>
+      </c>
+      <c r="G134" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A135" t="s">
+        <v>69</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D135">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E135">
+        <v>193</v>
+      </c>
+      <c r="F135">
+        <v>4250</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A136" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D136">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E136">
+        <v>193</v>
+      </c>
+      <c r="F136">
+        <v>3400</v>
+      </c>
+      <c r="G136" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137">
+        <v>40.6</v>
+      </c>
+      <c r="D137">
+        <v>17.2</v>
+      </c>
+      <c r="E137">
+        <v>187</v>
+      </c>
+      <c r="F137">
+        <v>3475</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138">
+        <v>32.1</v>
+      </c>
+      <c r="D138">
+        <v>15.5</v>
+      </c>
+      <c r="E138">
+        <v>188</v>
+      </c>
+      <c r="F138">
+        <v>3050</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A139" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>190</v>
+      </c>
+      <c r="F139">
+        <v>3725</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A140" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D140">
+        <v>16.8</v>
+      </c>
+      <c r="E140">
+        <v>192</v>
+      </c>
+      <c r="F140">
+        <v>3000</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141">
+        <v>39</v>
+      </c>
+      <c r="D141">
+        <v>18.7</v>
+      </c>
+      <c r="E141">
+        <v>185</v>
+      </c>
+      <c r="F141">
+        <v>3650</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A142" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D142">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E142">
+        <v>190</v>
+      </c>
+      <c r="F142">
+        <v>4250</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143">
+        <v>36.6</v>
+      </c>
+      <c r="D143">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E143">
+        <v>184</v>
+      </c>
+      <c r="F143">
+        <v>3475</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A144" t="s">
+        <v>69</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144">
+        <v>36</v>
+      </c>
+      <c r="D144">
+        <v>17.8</v>
+      </c>
+      <c r="E144">
+        <v>195</v>
+      </c>
+      <c r="F144">
+        <v>3450</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D145">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E145">
+        <v>193</v>
+      </c>
+      <c r="F145">
+        <v>3750</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A146" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146">
+        <v>36</v>
+      </c>
+      <c r="D146">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E146">
+        <v>187</v>
+      </c>
+      <c r="F146">
+        <v>3700</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147">
+        <v>41.5</v>
+      </c>
+      <c r="D147">
+        <v>18.5</v>
+      </c>
+      <c r="E147">
+        <v>201</v>
+      </c>
+      <c r="F147">
+        <v>4000</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A148" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" t="s">
+        <v>73</v>
+      </c>
+      <c r="C148">
+        <v>46.1</v>
+      </c>
+      <c r="D148">
+        <v>13.2</v>
+      </c>
+      <c r="E148">
+        <v>211</v>
+      </c>
+      <c r="F148">
+        <v>4500</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A149" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+      <c r="D149">
+        <v>16.3</v>
+      </c>
+      <c r="E149">
+        <v>230</v>
+      </c>
+      <c r="F149">
+        <v>5700</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C150">
+        <v>48.7</v>
+      </c>
+      <c r="D150">
+        <v>14.1</v>
+      </c>
+      <c r="E150">
+        <v>210</v>
+      </c>
+      <c r="F150">
+        <v>4450</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151">
+        <v>50</v>
+      </c>
+      <c r="D151">
+        <v>15.2</v>
+      </c>
+      <c r="E151">
+        <v>218</v>
+      </c>
+      <c r="F151">
+        <v>5700</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152">
+        <v>47.6</v>
+      </c>
+      <c r="D152">
+        <v>14.5</v>
+      </c>
+      <c r="E152">
+        <v>215</v>
+      </c>
+      <c r="F152">
+        <v>5400</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A153" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" t="s">
+        <v>73</v>
+      </c>
+      <c r="C153">
+        <v>46.5</v>
+      </c>
+      <c r="D153">
+        <v>13.5</v>
+      </c>
+      <c r="E153">
+        <v>210</v>
+      </c>
+      <c r="F153">
+        <v>4550</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A154" t="s">
+        <v>75</v>
+      </c>
+      <c r="B154" t="s">
+        <v>73</v>
+      </c>
+      <c r="C154">
+        <v>45.4</v>
+      </c>
+      <c r="D154">
+        <v>14.6</v>
+      </c>
+      <c r="E154">
+        <v>211</v>
+      </c>
+      <c r="F154">
+        <v>4800</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155">
+        <v>46.7</v>
+      </c>
+      <c r="D155">
+        <v>15.3</v>
+      </c>
+      <c r="E155">
+        <v>219</v>
+      </c>
+      <c r="F155">
+        <v>5200</v>
+      </c>
+      <c r="G155" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A156" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" t="s">
+        <v>73</v>
+      </c>
+      <c r="C156">
+        <v>43.3</v>
+      </c>
+      <c r="D156">
+        <v>13.4</v>
+      </c>
+      <c r="E156">
+        <v>209</v>
+      </c>
+      <c r="F156">
+        <v>4400</v>
+      </c>
+      <c r="G156" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A157" t="s">
+        <v>75</v>
+      </c>
+      <c r="B157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157">
+        <v>46.8</v>
+      </c>
+      <c r="D157">
+        <v>15.4</v>
+      </c>
+      <c r="E157">
+        <v>215</v>
+      </c>
+      <c r="F157">
+        <v>5150</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A158" t="s">
+        <v>75</v>
+      </c>
+      <c r="B158" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158">
+        <v>40.9</v>
+      </c>
+      <c r="D158">
+        <v>13.7</v>
+      </c>
+      <c r="E158">
+        <v>214</v>
+      </c>
+      <c r="F158">
+        <v>4650</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A159" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159">
+        <v>49</v>
+      </c>
+      <c r="D159">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E159">
+        <v>216</v>
+      </c>
+      <c r="F159">
+        <v>5550</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A160" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160">
+        <v>45.5</v>
+      </c>
+      <c r="D160">
+        <v>13.7</v>
+      </c>
+      <c r="E160">
+        <v>214</v>
+      </c>
+      <c r="F160">
+        <v>4650</v>
+      </c>
+      <c r="G160" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B161" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161">
+        <v>48.4</v>
+      </c>
+      <c r="D161">
+        <v>14.6</v>
+      </c>
+      <c r="E161">
+        <v>213</v>
+      </c>
+      <c r="F161">
+        <v>5850</v>
+      </c>
+      <c r="G161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A162" t="s">
+        <v>75</v>
+      </c>
+      <c r="B162" t="s">
+        <v>73</v>
+      </c>
+      <c r="C162">
+        <v>45.8</v>
+      </c>
+      <c r="D162">
+        <v>14.6</v>
+      </c>
+      <c r="E162">
+        <v>210</v>
+      </c>
+      <c r="F162">
+        <v>4200</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163">
+        <v>49.3</v>
+      </c>
+      <c r="D163">
+        <v>15.7</v>
+      </c>
+      <c r="E163">
+        <v>217</v>
+      </c>
+      <c r="F163">
+        <v>5850</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A164" t="s">
+        <v>75</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164">
+        <v>42</v>
+      </c>
+      <c r="D164">
+        <v>13.5</v>
+      </c>
+      <c r="E164">
+        <v>210</v>
+      </c>
+      <c r="F164">
+        <v>4150</v>
+      </c>
+      <c r="G164" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A165" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165" t="s">
+        <v>73</v>
+      </c>
+      <c r="C165">
+        <v>49.2</v>
+      </c>
+      <c r="D165">
+        <v>15.2</v>
+      </c>
+      <c r="E165">
+        <v>221</v>
+      </c>
+      <c r="F165">
+        <v>6300</v>
+      </c>
+      <c r="G165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A166" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166">
+        <v>46.2</v>
+      </c>
+      <c r="D166">
+        <v>14.5</v>
+      </c>
+      <c r="E166">
+        <v>209</v>
+      </c>
+      <c r="F166">
+        <v>4800</v>
+      </c>
+      <c r="G166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A167" t="s">
+        <v>75</v>
+      </c>
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167">
+        <v>48.7</v>
+      </c>
+      <c r="D167">
+        <v>15.1</v>
+      </c>
+      <c r="E167">
+        <v>222</v>
+      </c>
+      <c r="F167">
+        <v>5350</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A168" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168">
+        <v>50.2</v>
+      </c>
+      <c r="D168">
+        <v>14.3</v>
+      </c>
+      <c r="E168">
+        <v>218</v>
+      </c>
+      <c r="F168">
+        <v>5700</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169">
+        <v>45.1</v>
+      </c>
+      <c r="D169">
+        <v>14.5</v>
+      </c>
+      <c r="E169">
+        <v>215</v>
+      </c>
+      <c r="F169">
+        <v>5000</v>
+      </c>
+      <c r="G169" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170">
+        <v>46.5</v>
+      </c>
+      <c r="D170">
+        <v>14.5</v>
+      </c>
+      <c r="E170">
+        <v>213</v>
+      </c>
+      <c r="F170">
+        <v>4400</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A171" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171">
+        <v>46.3</v>
+      </c>
+      <c r="D171">
+        <v>15.8</v>
+      </c>
+      <c r="E171">
+        <v>215</v>
+      </c>
+      <c r="F171">
+        <v>5050</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B172" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172">
+        <v>42.9</v>
+      </c>
+      <c r="D172">
+        <v>13.1</v>
+      </c>
+      <c r="E172">
+        <v>215</v>
+      </c>
+      <c r="F172">
+        <v>5000</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A173" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173">
+        <v>46.1</v>
+      </c>
+      <c r="D173">
+        <v>15.1</v>
+      </c>
+      <c r="E173">
+        <v>215</v>
+      </c>
+      <c r="F173">
+        <v>5100</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A174" t="s">
+        <v>75</v>
+      </c>
+      <c r="B174" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174">
+        <v>47.8</v>
+      </c>
+      <c r="D174">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>215</v>
+      </c>
+      <c r="F174">
+        <v>5650</v>
+      </c>
+      <c r="G174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175" t="s">
+        <v>73</v>
+      </c>
+      <c r="C175">
+        <v>48.2</v>
+      </c>
+      <c r="D175">
+        <v>14.3</v>
+      </c>
+      <c r="E175">
+        <v>210</v>
+      </c>
+      <c r="F175">
+        <v>4600</v>
+      </c>
+      <c r="G175" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A176" t="s">
+        <v>75</v>
+      </c>
+      <c r="B176" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176">
+        <v>50</v>
+      </c>
+      <c r="D176">
+        <v>15.3</v>
+      </c>
+      <c r="E176">
+        <v>220</v>
+      </c>
+      <c r="F176">
+        <v>5550</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" t="s">
+        <v>73</v>
+      </c>
+      <c r="C177">
+        <v>47.3</v>
+      </c>
+      <c r="D177">
+        <v>15.3</v>
+      </c>
+      <c r="E177">
+        <v>222</v>
+      </c>
+      <c r="F177">
+        <v>5250</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A178" t="s">
+        <v>75</v>
+      </c>
+      <c r="B178" t="s">
+        <v>73</v>
+      </c>
+      <c r="C178">
+        <v>42.8</v>
+      </c>
+      <c r="D178">
+        <v>14.2</v>
+      </c>
+      <c r="E178">
+        <v>209</v>
+      </c>
+      <c r="F178">
+        <v>4700</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A179" t="s">
+        <v>75</v>
+      </c>
+      <c r="B179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179">
+        <v>45.1</v>
+      </c>
+      <c r="D179">
+        <v>14.5</v>
+      </c>
+      <c r="E179">
+        <v>207</v>
+      </c>
+      <c r="F179">
+        <v>5050</v>
+      </c>
+      <c r="G179" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A180" t="s">
+        <v>75</v>
+      </c>
+      <c r="B180" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180">
+        <v>59.6</v>
+      </c>
+      <c r="D180">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>230</v>
+      </c>
+      <c r="F180">
+        <v>6050</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A181" t="s">
+        <v>75</v>
+      </c>
+      <c r="B181" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181">
+        <v>49.1</v>
+      </c>
+      <c r="D181">
+        <v>14.8</v>
+      </c>
+      <c r="E181">
+        <v>220</v>
+      </c>
+      <c r="F181">
+        <v>5150</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A182" t="s">
+        <v>75</v>
+      </c>
+      <c r="B182" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182">
+        <v>48.4</v>
+      </c>
+      <c r="D182">
+        <v>16.3</v>
+      </c>
+      <c r="E182">
+        <v>220</v>
+      </c>
+      <c r="F182">
+        <v>5400</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A183" t="s">
+        <v>75</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183">
+        <v>42.6</v>
+      </c>
+      <c r="D183">
+        <v>13.7</v>
+      </c>
+      <c r="E183">
+        <v>213</v>
+      </c>
+      <c r="F183">
+        <v>4950</v>
+      </c>
+      <c r="G183" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A184" t="s">
+        <v>75</v>
+      </c>
+      <c r="B184" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184">
+        <v>44.4</v>
+      </c>
+      <c r="D184">
+        <v>17.3</v>
+      </c>
+      <c r="E184">
+        <v>219</v>
+      </c>
+      <c r="F184">
+        <v>5250</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A185" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185">
+        <v>44</v>
+      </c>
+      <c r="D185">
+        <v>13.6</v>
+      </c>
+      <c r="E185">
+        <v>208</v>
+      </c>
+      <c r="F185">
+        <v>4350</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A186" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186">
+        <v>48.7</v>
+      </c>
+      <c r="D186">
+        <v>15.7</v>
+      </c>
+      <c r="E186">
+        <v>208</v>
+      </c>
+      <c r="F186">
+        <v>5350</v>
+      </c>
+      <c r="G186" t="s">
+        <v>71</v>
+      </c>
+      <c r="H186">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A187" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187">
+        <v>42.7</v>
+      </c>
+      <c r="D187">
+        <v>13.7</v>
+      </c>
+      <c r="E187">
+        <v>208</v>
+      </c>
+      <c r="F187">
+        <v>3950</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A188" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188">
+        <v>49.6</v>
+      </c>
+      <c r="D188">
+        <v>16</v>
+      </c>
+      <c r="E188">
+        <v>225</v>
+      </c>
+      <c r="F188">
+        <v>5700</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A189" t="s">
+        <v>75</v>
+      </c>
+      <c r="B189" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189">
+        <v>45.3</v>
+      </c>
+      <c r="D189">
+        <v>13.7</v>
+      </c>
+      <c r="E189">
+        <v>210</v>
+      </c>
+      <c r="F189">
+        <v>4300</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A190" t="s">
+        <v>75</v>
+      </c>
+      <c r="B190" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190">
+        <v>49.6</v>
+      </c>
+      <c r="D190">
+        <v>15</v>
+      </c>
+      <c r="E190">
+        <v>216</v>
+      </c>
+      <c r="F190">
+        <v>4750</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A191" t="s">
+        <v>75</v>
+      </c>
+      <c r="B191" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191">
+        <v>50.5</v>
+      </c>
+      <c r="D191">
+        <v>15.9</v>
+      </c>
+      <c r="E191">
+        <v>222</v>
+      </c>
+      <c r="F191">
+        <v>5550</v>
+      </c>
+      <c r="G191" t="s">
+        <v>71</v>
+      </c>
+      <c r="H191">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A192" t="s">
+        <v>75</v>
+      </c>
+      <c r="B192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192">
+        <v>43.6</v>
+      </c>
+      <c r="D192">
+        <v>13.9</v>
+      </c>
+      <c r="E192">
+        <v>217</v>
+      </c>
+      <c r="F192">
+        <v>4900</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A193" t="s">
+        <v>75</v>
+      </c>
+      <c r="B193" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193">
+        <v>45.5</v>
+      </c>
+      <c r="D193">
+        <v>13.9</v>
+      </c>
+      <c r="E193">
+        <v>210</v>
+      </c>
+      <c r="F193">
+        <v>4200</v>
+      </c>
+      <c r="G193" t="s">
+        <v>72</v>
+      </c>
+      <c r="H193">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A194" t="s">
+        <v>75</v>
+      </c>
+      <c r="B194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194">
+        <v>50.5</v>
+      </c>
+      <c r="D194">
+        <v>15.9</v>
+      </c>
+      <c r="E194">
+        <v>225</v>
+      </c>
+      <c r="F194">
+        <v>5400</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A195" t="s">
+        <v>75</v>
+      </c>
+      <c r="B195" t="s">
+        <v>73</v>
+      </c>
+      <c r="C195">
+        <v>44.9</v>
+      </c>
+      <c r="D195">
+        <v>13.3</v>
+      </c>
+      <c r="E195">
+        <v>213</v>
+      </c>
+      <c r="F195">
+        <v>5100</v>
+      </c>
+      <c r="G195" t="s">
+        <v>72</v>
+      </c>
+      <c r="H195">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A196" t="s">
+        <v>75</v>
+      </c>
+      <c r="B196" t="s">
+        <v>73</v>
+      </c>
+      <c r="C196">
+        <v>45.2</v>
+      </c>
+      <c r="D196">
+        <v>15.8</v>
+      </c>
+      <c r="E196">
+        <v>215</v>
+      </c>
+      <c r="F196">
+        <v>5300</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A197" t="s">
+        <v>75</v>
+      </c>
+      <c r="B197" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197">
+        <v>46.6</v>
+      </c>
+      <c r="D197">
+        <v>14.2</v>
+      </c>
+      <c r="E197">
+        <v>210</v>
+      </c>
+      <c r="F197">
+        <v>4850</v>
+      </c>
+      <c r="G197" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198">
+        <v>48.5</v>
+      </c>
+      <c r="D198">
+        <v>14.1</v>
+      </c>
+      <c r="E198">
+        <v>220</v>
+      </c>
+      <c r="F198">
+        <v>5300</v>
+      </c>
+      <c r="G198" t="s">
+        <v>71</v>
+      </c>
+      <c r="H198">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A199" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199" t="s">
+        <v>73</v>
+      </c>
+      <c r="C199">
+        <v>45.1</v>
+      </c>
+      <c r="D199">
+        <v>14.4</v>
+      </c>
+      <c r="E199">
+        <v>210</v>
+      </c>
+      <c r="F199">
+        <v>4400</v>
+      </c>
+      <c r="G199" t="s">
+        <v>72</v>
+      </c>
+      <c r="H199">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A200" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200">
+        <v>50.1</v>
+      </c>
+      <c r="D200">
+        <v>15</v>
+      </c>
+      <c r="E200">
+        <v>225</v>
+      </c>
+      <c r="F200">
+        <v>5000</v>
+      </c>
+      <c r="G200" t="s">
+        <v>71</v>
+      </c>
+      <c r="H200">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201">
+        <v>46.5</v>
+      </c>
+      <c r="D201">
+        <v>14.4</v>
+      </c>
+      <c r="E201">
+        <v>217</v>
+      </c>
+      <c r="F201">
+        <v>4900</v>
+      </c>
+      <c r="G201" t="s">
+        <v>72</v>
+      </c>
+      <c r="H201">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202">
+        <v>45</v>
+      </c>
+      <c r="D202">
+        <v>15.4</v>
+      </c>
+      <c r="E202">
+        <v>220</v>
+      </c>
+      <c r="F202">
+        <v>5050</v>
+      </c>
+      <c r="G202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A203" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203">
+        <v>43.8</v>
+      </c>
+      <c r="D203">
+        <v>13.9</v>
+      </c>
+      <c r="E203">
+        <v>208</v>
+      </c>
+      <c r="F203">
+        <v>4300</v>
+      </c>
+      <c r="G203" t="s">
+        <v>72</v>
+      </c>
+      <c r="H203">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204">
+        <v>45.5</v>
+      </c>
+      <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>220</v>
+      </c>
+      <c r="F204">
+        <v>5000</v>
+      </c>
+      <c r="G204" t="s">
+        <v>71</v>
+      </c>
+      <c r="H204">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A205" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" t="s">
+        <v>73</v>
+      </c>
+      <c r="C205">
+        <v>43.2</v>
+      </c>
+      <c r="D205">
+        <v>14.5</v>
+      </c>
+      <c r="E205">
+        <v>208</v>
+      </c>
+      <c r="F205">
+        <v>4450</v>
+      </c>
+      <c r="G205" t="s">
+        <v>72</v>
+      </c>
+      <c r="H205">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" t="s">
+        <v>73</v>
+      </c>
+      <c r="C206">
+        <v>50.4</v>
+      </c>
+      <c r="D206">
+        <v>15.3</v>
+      </c>
+      <c r="E206">
+        <v>224</v>
+      </c>
+      <c r="F206">
+        <v>5550</v>
+      </c>
+      <c r="G206" t="s">
+        <v>71</v>
+      </c>
+      <c r="H206">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A207" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" t="s">
+        <v>73</v>
+      </c>
+      <c r="C207">
+        <v>45.3</v>
+      </c>
+      <c r="D207">
+        <v>13.8</v>
+      </c>
+      <c r="E207">
+        <v>208</v>
+      </c>
+      <c r="F207">
+        <v>4200</v>
+      </c>
+      <c r="G207" t="s">
+        <v>72</v>
+      </c>
+      <c r="H207">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A208" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" t="s">
+        <v>73</v>
+      </c>
+      <c r="C208">
+        <v>46.2</v>
+      </c>
+      <c r="D208">
+        <v>14.9</v>
+      </c>
+      <c r="E208">
+        <v>221</v>
+      </c>
+      <c r="F208">
+        <v>5300</v>
+      </c>
+      <c r="G208" t="s">
+        <v>71</v>
+      </c>
+      <c r="H208">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A209" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209">
+        <v>45.7</v>
+      </c>
+      <c r="D209">
+        <v>13.9</v>
+      </c>
+      <c r="E209">
+        <v>214</v>
+      </c>
+      <c r="F209">
+        <v>4400</v>
+      </c>
+      <c r="G209" t="s">
+        <v>72</v>
+      </c>
+      <c r="H209">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A210" t="s">
+        <v>75</v>
+      </c>
+      <c r="B210" t="s">
+        <v>73</v>
+      </c>
+      <c r="C210">
+        <v>54.3</v>
+      </c>
+      <c r="D210">
+        <v>15.7</v>
+      </c>
+      <c r="E210">
+        <v>231</v>
+      </c>
+      <c r="F210">
+        <v>5650</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
+      </c>
+      <c r="H210">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A211" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211">
+        <v>45.8</v>
+      </c>
+      <c r="D211">
+        <v>14.2</v>
+      </c>
+      <c r="E211">
+        <v>219</v>
+      </c>
+      <c r="F211">
+        <v>4700</v>
+      </c>
+      <c r="G211" t="s">
+        <v>72</v>
+      </c>
+      <c r="H211">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A212" t="s">
+        <v>75</v>
+      </c>
+      <c r="B212" t="s">
+        <v>73</v>
+      </c>
+      <c r="C212">
+        <v>49.8</v>
+      </c>
+      <c r="D212">
+        <v>16.8</v>
+      </c>
+      <c r="E212">
+        <v>230</v>
+      </c>
+      <c r="F212">
+        <v>5700</v>
+      </c>
+      <c r="G212" t="s">
+        <v>71</v>
+      </c>
+      <c r="H212">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A213" t="s">
+        <v>75</v>
+      </c>
+      <c r="B213" t="s">
+        <v>73</v>
+      </c>
+      <c r="C213">
+        <v>49.5</v>
+      </c>
+      <c r="D213">
+        <v>16.2</v>
+      </c>
+      <c r="E213">
+        <v>229</v>
+      </c>
+      <c r="F213">
+        <v>5800</v>
+      </c>
+      <c r="G213" t="s">
+        <v>71</v>
+      </c>
+      <c r="H213">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A214" t="s">
+        <v>75</v>
+      </c>
+      <c r="B214" t="s">
+        <v>73</v>
+      </c>
+      <c r="C214">
+        <v>43.5</v>
+      </c>
+      <c r="D214">
+        <v>14.2</v>
+      </c>
+      <c r="E214">
+        <v>220</v>
+      </c>
+      <c r="F214">
+        <v>4700</v>
+      </c>
+      <c r="G214" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A215" t="s">
+        <v>75</v>
+      </c>
+      <c r="B215" t="s">
+        <v>73</v>
+      </c>
+      <c r="C215">
+        <v>50.7</v>
+      </c>
+      <c r="D215">
+        <v>15</v>
+      </c>
+      <c r="E215">
+        <v>223</v>
+      </c>
+      <c r="F215">
+        <v>5550</v>
+      </c>
+      <c r="G215" t="s">
+        <v>71</v>
+      </c>
+      <c r="H215">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A216" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" t="s">
+        <v>73</v>
+      </c>
+      <c r="C216">
+        <v>47.7</v>
+      </c>
+      <c r="D216">
+        <v>15</v>
+      </c>
+      <c r="E216">
+        <v>216</v>
+      </c>
+      <c r="F216">
+        <v>4750</v>
+      </c>
+      <c r="G216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A217" t="s">
+        <v>75</v>
+      </c>
+      <c r="B217" t="s">
+        <v>73</v>
+      </c>
+      <c r="C217">
+        <v>46.4</v>
+      </c>
+      <c r="D217">
+        <v>15.6</v>
+      </c>
+      <c r="E217">
+        <v>221</v>
+      </c>
+      <c r="F217">
+        <v>5000</v>
+      </c>
+      <c r="G217" t="s">
+        <v>71</v>
+      </c>
+      <c r="H217">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A218" t="s">
+        <v>75</v>
+      </c>
+      <c r="B218" t="s">
+        <v>73</v>
+      </c>
+      <c r="C218">
+        <v>48.2</v>
+      </c>
+      <c r="D218">
+        <v>15.6</v>
+      </c>
+      <c r="E218">
+        <v>221</v>
+      </c>
+      <c r="F218">
+        <v>5100</v>
+      </c>
+      <c r="G218" t="s">
+        <v>71</v>
+      </c>
+      <c r="H218">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A219" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" t="s">
+        <v>73</v>
+      </c>
+      <c r="C219">
+        <v>46.5</v>
+      </c>
+      <c r="D219">
+        <v>14.8</v>
+      </c>
+      <c r="E219">
+        <v>217</v>
+      </c>
+      <c r="F219">
+        <v>5200</v>
+      </c>
+      <c r="G219" t="s">
+        <v>72</v>
+      </c>
+      <c r="H219">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A220" t="s">
+        <v>75</v>
+      </c>
+      <c r="B220" t="s">
+        <v>73</v>
+      </c>
+      <c r="C220">
+        <v>46.4</v>
+      </c>
+      <c r="D220">
+        <v>15</v>
+      </c>
+      <c r="E220">
+        <v>216</v>
+      </c>
+      <c r="F220">
+        <v>4700</v>
+      </c>
+      <c r="G220" t="s">
+        <v>72</v>
+      </c>
+      <c r="H220">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A221" t="s">
+        <v>75</v>
+      </c>
+      <c r="B221" t="s">
+        <v>73</v>
+      </c>
+      <c r="C221">
+        <v>48.6</v>
+      </c>
+      <c r="D221">
+        <v>16</v>
+      </c>
+      <c r="E221">
+        <v>230</v>
+      </c>
+      <c r="F221">
+        <v>5800</v>
+      </c>
+      <c r="G221" t="s">
+        <v>71</v>
+      </c>
+      <c r="H221">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A222" t="s">
+        <v>75</v>
+      </c>
+      <c r="B222" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222">
+        <v>47.5</v>
+      </c>
+      <c r="D222">
+        <v>14.2</v>
+      </c>
+      <c r="E222">
+        <v>209</v>
+      </c>
+      <c r="F222">
+        <v>4600</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A223" t="s">
+        <v>75</v>
+      </c>
+      <c r="B223" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223">
+        <v>51.1</v>
+      </c>
+      <c r="D223">
+        <v>16.3</v>
+      </c>
+      <c r="E223">
+        <v>220</v>
+      </c>
+      <c r="F223">
+        <v>6000</v>
+      </c>
+      <c r="G223" t="s">
+        <v>71</v>
+      </c>
+      <c r="H223">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A224" t="s">
+        <v>75</v>
+      </c>
+      <c r="B224" t="s">
+        <v>73</v>
+      </c>
+      <c r="C224">
+        <v>45.2</v>
+      </c>
+      <c r="D224">
+        <v>13.8</v>
+      </c>
+      <c r="E224">
+        <v>215</v>
+      </c>
+      <c r="F224">
+        <v>4750</v>
+      </c>
+      <c r="G224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A225" t="s">
+        <v>75</v>
+      </c>
+      <c r="B225" t="s">
+        <v>73</v>
+      </c>
+      <c r="C225">
+        <v>45.2</v>
+      </c>
+      <c r="D225">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E225">
+        <v>223</v>
+      </c>
+      <c r="F225">
+        <v>5950</v>
+      </c>
+      <c r="G225" t="s">
+        <v>71</v>
+      </c>
+      <c r="H225">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A226" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" t="s">
+        <v>73</v>
+      </c>
+      <c r="C226">
+        <v>49.1</v>
+      </c>
+      <c r="D226">
+        <v>14.5</v>
+      </c>
+      <c r="E226">
+        <v>212</v>
+      </c>
+      <c r="F226">
+        <v>4625</v>
+      </c>
+      <c r="G226" t="s">
+        <v>72</v>
+      </c>
+      <c r="H226">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A227" t="s">
+        <v>75</v>
+      </c>
+      <c r="B227" t="s">
+        <v>73</v>
+      </c>
+      <c r="C227">
+        <v>52.5</v>
+      </c>
+      <c r="D227">
+        <v>15.6</v>
+      </c>
+      <c r="E227">
+        <v>221</v>
+      </c>
+      <c r="F227">
+        <v>5450</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A228" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228" t="s">
+        <v>73</v>
+      </c>
+      <c r="C228">
+        <v>47.4</v>
+      </c>
+      <c r="D228">
+        <v>14.6</v>
+      </c>
+      <c r="E228">
+        <v>212</v>
+      </c>
+      <c r="F228">
+        <v>4725</v>
+      </c>
+      <c r="G228" t="s">
+        <v>72</v>
+      </c>
+      <c r="H228">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A229" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" t="s">
+        <v>73</v>
+      </c>
+      <c r="C229">
+        <v>50</v>
+      </c>
+      <c r="D229">
+        <v>15.9</v>
+      </c>
+      <c r="E229">
+        <v>224</v>
+      </c>
+      <c r="F229">
+        <v>5350</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A230" t="s">
+        <v>75</v>
+      </c>
+      <c r="B230" t="s">
+        <v>73</v>
+      </c>
+      <c r="C230">
+        <v>44.9</v>
+      </c>
+      <c r="D230">
+        <v>13.8</v>
+      </c>
+      <c r="E230">
+        <v>212</v>
+      </c>
+      <c r="F230">
+        <v>4750</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A231" t="s">
+        <v>75</v>
+      </c>
+      <c r="B231" t="s">
+        <v>73</v>
+      </c>
+      <c r="C231">
+        <v>50.8</v>
+      </c>
+      <c r="D231">
+        <v>17.3</v>
+      </c>
+      <c r="E231">
+        <v>228</v>
+      </c>
+      <c r="F231">
+        <v>5600</v>
+      </c>
+      <c r="G231" t="s">
+        <v>71</v>
+      </c>
+      <c r="H231">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A232" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232" t="s">
+        <v>73</v>
+      </c>
+      <c r="C232">
+        <v>43.4</v>
+      </c>
+      <c r="D232">
+        <v>14.4</v>
+      </c>
+      <c r="E232">
+        <v>218</v>
+      </c>
+      <c r="F232">
+        <v>4600</v>
+      </c>
+      <c r="G232" t="s">
+        <v>72</v>
+      </c>
+      <c r="H232">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A233" t="s">
+        <v>75</v>
+      </c>
+      <c r="B233" t="s">
+        <v>73</v>
+      </c>
+      <c r="C233">
+        <v>51.3</v>
+      </c>
+      <c r="D233">
+        <v>14.2</v>
+      </c>
+      <c r="E233">
+        <v>218</v>
+      </c>
+      <c r="F233">
+        <v>5300</v>
+      </c>
+      <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="H233">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A234" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" t="s">
+        <v>73</v>
+      </c>
+      <c r="C234">
+        <v>47.5</v>
+      </c>
+      <c r="D234">
+        <v>14</v>
+      </c>
+      <c r="E234">
+        <v>212</v>
+      </c>
+      <c r="F234">
+        <v>4875</v>
+      </c>
+      <c r="G234" t="s">
+        <v>72</v>
+      </c>
+      <c r="H234">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A235" t="s">
+        <v>75</v>
+      </c>
+      <c r="B235" t="s">
+        <v>73</v>
+      </c>
+      <c r="C235">
+        <v>52.1</v>
+      </c>
+      <c r="D235">
+        <v>17</v>
+      </c>
+      <c r="E235">
+        <v>230</v>
+      </c>
+      <c r="F235">
+        <v>5550</v>
+      </c>
+      <c r="G235" t="s">
+        <v>71</v>
+      </c>
+      <c r="H235">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A236" t="s">
+        <v>75</v>
+      </c>
+      <c r="B236" t="s">
+        <v>73</v>
+      </c>
+      <c r="C236">
+        <v>47.5</v>
+      </c>
+      <c r="D236">
+        <v>15</v>
+      </c>
+      <c r="E236">
+        <v>218</v>
+      </c>
+      <c r="F236">
+        <v>4950</v>
+      </c>
+      <c r="G236" t="s">
+        <v>72</v>
+      </c>
+      <c r="H236">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A237" t="s">
+        <v>75</v>
+      </c>
+      <c r="B237" t="s">
+        <v>73</v>
+      </c>
+      <c r="C237">
+        <v>52.2</v>
+      </c>
+      <c r="D237">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E237">
+        <v>228</v>
+      </c>
+      <c r="F237">
+        <v>5400</v>
+      </c>
+      <c r="G237" t="s">
+        <v>71</v>
+      </c>
+      <c r="H237">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A238" t="s">
+        <v>75</v>
+      </c>
+      <c r="B238" t="s">
+        <v>73</v>
+      </c>
+      <c r="C238">
+        <v>45.5</v>
+      </c>
+      <c r="D238">
+        <v>14.5</v>
+      </c>
+      <c r="E238">
+        <v>212</v>
+      </c>
+      <c r="F238">
+        <v>4750</v>
+      </c>
+      <c r="G238" t="s">
+        <v>72</v>
+      </c>
+      <c r="H238">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A239" t="s">
+        <v>75</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239">
+        <v>49.5</v>
+      </c>
+      <c r="D239">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E239">
+        <v>224</v>
+      </c>
+      <c r="F239">
+        <v>5650</v>
+      </c>
+      <c r="G239" t="s">
+        <v>71</v>
+      </c>
+      <c r="H239">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A240" t="s">
+        <v>75</v>
+      </c>
+      <c r="B240" t="s">
+        <v>73</v>
+      </c>
+      <c r="C240">
+        <v>44.5</v>
+      </c>
+      <c r="D240">
+        <v>14.7</v>
+      </c>
+      <c r="E240">
+        <v>214</v>
+      </c>
+      <c r="F240">
+        <v>4850</v>
+      </c>
+      <c r="G240" t="s">
+        <v>72</v>
+      </c>
+      <c r="H240">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A241" t="s">
+        <v>75</v>
+      </c>
+      <c r="B241" t="s">
+        <v>73</v>
+      </c>
+      <c r="C241">
+        <v>50.8</v>
+      </c>
+      <c r="D241">
+        <v>15.7</v>
+      </c>
+      <c r="E241">
+        <v>226</v>
+      </c>
+      <c r="F241">
+        <v>5200</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A242" t="s">
+        <v>75</v>
+      </c>
+      <c r="B242" t="s">
+        <v>73</v>
+      </c>
+      <c r="C242">
+        <v>49.4</v>
+      </c>
+      <c r="D242">
+        <v>15.8</v>
+      </c>
+      <c r="E242">
+        <v>216</v>
+      </c>
+      <c r="F242">
+        <v>4925</v>
+      </c>
+      <c r="G242" t="s">
+        <v>71</v>
+      </c>
+      <c r="H242">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A243" t="s">
+        <v>75</v>
+      </c>
+      <c r="B243" t="s">
+        <v>73</v>
+      </c>
+      <c r="C243">
+        <v>46.9</v>
+      </c>
+      <c r="D243">
+        <v>14.6</v>
+      </c>
+      <c r="E243">
+        <v>222</v>
+      </c>
+      <c r="F243">
+        <v>4875</v>
+      </c>
+      <c r="G243" t="s">
+        <v>72</v>
+      </c>
+      <c r="H243">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A244" t="s">
+        <v>75</v>
+      </c>
+      <c r="B244" t="s">
+        <v>73</v>
+      </c>
+      <c r="C244">
+        <v>48.4</v>
+      </c>
+      <c r="D244">
+        <v>14.4</v>
+      </c>
+      <c r="E244">
+        <v>203</v>
+      </c>
+      <c r="F244">
+        <v>4625</v>
+      </c>
+      <c r="G244" t="s">
+        <v>72</v>
+      </c>
+      <c r="H244">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A245" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" t="s">
+        <v>73</v>
+      </c>
+      <c r="C245">
+        <v>51.1</v>
+      </c>
+      <c r="D245">
+        <v>16.5</v>
+      </c>
+      <c r="E245">
+        <v>225</v>
+      </c>
+      <c r="F245">
+        <v>5250</v>
+      </c>
+      <c r="G245" t="s">
+        <v>71</v>
+      </c>
+      <c r="H245">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A246" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" t="s">
+        <v>73</v>
+      </c>
+      <c r="C246">
+        <v>48.5</v>
+      </c>
+      <c r="D246">
+        <v>15</v>
+      </c>
+      <c r="E246">
+        <v>219</v>
+      </c>
+      <c r="F246">
+        <v>4850</v>
+      </c>
+      <c r="G246" t="s">
+        <v>72</v>
+      </c>
+      <c r="H246">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A247" t="s">
+        <v>75</v>
+      </c>
+      <c r="B247" t="s">
+        <v>73</v>
+      </c>
+      <c r="C247">
+        <v>55.9</v>
+      </c>
+      <c r="D247">
+        <v>17</v>
+      </c>
+      <c r="E247">
+        <v>228</v>
+      </c>
+      <c r="F247">
+        <v>5600</v>
+      </c>
+      <c r="G247" t="s">
+        <v>71</v>
+      </c>
+      <c r="H247">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A248" t="s">
+        <v>75</v>
+      </c>
+      <c r="B248" t="s">
+        <v>73</v>
+      </c>
+      <c r="C248">
+        <v>47.2</v>
+      </c>
+      <c r="D248">
+        <v>15.5</v>
+      </c>
+      <c r="E248">
+        <v>215</v>
+      </c>
+      <c r="F248">
+        <v>4975</v>
+      </c>
+      <c r="G248" t="s">
+        <v>72</v>
+      </c>
+      <c r="H248">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A249" t="s">
+        <v>75</v>
+      </c>
+      <c r="B249" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249">
+        <v>49.1</v>
+      </c>
+      <c r="D249">
+        <v>15</v>
+      </c>
+      <c r="E249">
+        <v>228</v>
+      </c>
+      <c r="F249">
+        <v>5500</v>
+      </c>
+      <c r="G249" t="s">
+        <v>71</v>
+      </c>
+      <c r="H249">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A250" t="s">
+        <v>75</v>
+      </c>
+      <c r="B250" t="s">
+        <v>73</v>
+      </c>
+      <c r="C250">
+        <v>46.8</v>
+      </c>
+      <c r="D250">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E250">
+        <v>215</v>
+      </c>
+      <c r="F250">
+        <v>5500</v>
+      </c>
+      <c r="G250" t="s">
+        <v>71</v>
+      </c>
+      <c r="H250">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A251" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" t="s">
+        <v>73</v>
+      </c>
+      <c r="C251">
+        <v>41.7</v>
+      </c>
+      <c r="D251">
+        <v>14.7</v>
+      </c>
+      <c r="E251">
+        <v>210</v>
+      </c>
+      <c r="F251">
+        <v>4700</v>
+      </c>
+      <c r="G251" t="s">
+        <v>72</v>
+      </c>
+      <c r="H251">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A252" t="s">
+        <v>75</v>
+      </c>
+      <c r="B252" t="s">
+        <v>73</v>
+      </c>
+      <c r="C252">
+        <v>53.4</v>
+      </c>
+      <c r="D252">
+        <v>15.8</v>
+      </c>
+      <c r="E252">
+        <v>219</v>
+      </c>
+      <c r="F252">
+        <v>5500</v>
+      </c>
+      <c r="G252" t="s">
+        <v>71</v>
+      </c>
+      <c r="H252">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A253" t="s">
+        <v>75</v>
+      </c>
+      <c r="B253" t="s">
+        <v>73</v>
+      </c>
+      <c r="C253">
+        <v>43.3</v>
+      </c>
+      <c r="D253">
+        <v>14</v>
+      </c>
+      <c r="E253">
+        <v>208</v>
+      </c>
+      <c r="F253">
+        <v>4575</v>
+      </c>
+      <c r="G253" t="s">
+        <v>72</v>
+      </c>
+      <c r="H253">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A254" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" t="s">
+        <v>73</v>
+      </c>
+      <c r="C254">
+        <v>48.1</v>
+      </c>
+      <c r="D254">
+        <v>15.1</v>
+      </c>
+      <c r="E254">
+        <v>209</v>
+      </c>
+      <c r="F254">
+        <v>5500</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A255" t="s">
+        <v>75</v>
+      </c>
+      <c r="B255" t="s">
+        <v>73</v>
+      </c>
+      <c r="C255">
+        <v>50.5</v>
+      </c>
+      <c r="D255">
+        <v>15.2</v>
+      </c>
+      <c r="E255">
+        <v>216</v>
+      </c>
+      <c r="F255">
+        <v>5000</v>
+      </c>
+      <c r="G255" t="s">
+        <v>72</v>
+      </c>
+      <c r="H255">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A256" t="s">
+        <v>75</v>
+      </c>
+      <c r="B256" t="s">
+        <v>73</v>
+      </c>
+      <c r="C256">
+        <v>49.8</v>
+      </c>
+      <c r="D256">
+        <v>15.9</v>
+      </c>
+      <c r="E256">
+        <v>229</v>
+      </c>
+      <c r="F256">
+        <v>5950</v>
+      </c>
+      <c r="G256" t="s">
+        <v>71</v>
+      </c>
+      <c r="H256">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A257" t="s">
+        <v>75</v>
+      </c>
+      <c r="B257" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257">
+        <v>43.5</v>
+      </c>
+      <c r="D257">
+        <v>15.2</v>
+      </c>
+      <c r="E257">
+        <v>213</v>
+      </c>
+      <c r="F257">
+        <v>4650</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A258" t="s">
+        <v>75</v>
+      </c>
+      <c r="B258" t="s">
+        <v>73</v>
+      </c>
+      <c r="C258">
+        <v>51.5</v>
+      </c>
+      <c r="D258">
+        <v>16.3</v>
+      </c>
+      <c r="E258">
+        <v>230</v>
+      </c>
+      <c r="F258">
+        <v>5500</v>
+      </c>
+      <c r="G258" t="s">
+        <v>71</v>
+      </c>
+      <c r="H258">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A259" t="s">
+        <v>75</v>
+      </c>
+      <c r="B259" t="s">
+        <v>73</v>
+      </c>
+      <c r="C259">
+        <v>46.2</v>
+      </c>
+      <c r="D259">
+        <v>14.1</v>
+      </c>
+      <c r="E259">
+        <v>217</v>
+      </c>
+      <c r="F259">
+        <v>4375</v>
+      </c>
+      <c r="G259" t="s">
+        <v>72</v>
+      </c>
+      <c r="H259">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A260" t="s">
+        <v>75</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260">
+        <v>55.1</v>
+      </c>
+      <c r="D260">
+        <v>16</v>
+      </c>
+      <c r="E260">
+        <v>230</v>
+      </c>
+      <c r="F260">
+        <v>5850</v>
+      </c>
+      <c r="G260" t="s">
+        <v>71</v>
+      </c>
+      <c r="H260">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A261" t="s">
+        <v>75</v>
+      </c>
+      <c r="B261" t="s">
+        <v>73</v>
+      </c>
+      <c r="C261">
+        <v>48.8</v>
+      </c>
+      <c r="D261">
+        <v>16.2</v>
+      </c>
+      <c r="E261">
+        <v>222</v>
+      </c>
+      <c r="F261">
+        <v>6000</v>
+      </c>
+      <c r="G261" t="s">
+        <v>71</v>
+      </c>
+      <c r="H261">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A262" t="s">
+        <v>75</v>
+      </c>
+      <c r="B262" t="s">
+        <v>73</v>
+      </c>
+      <c r="C262">
+        <v>47.2</v>
+      </c>
+      <c r="D262">
+        <v>13.7</v>
+      </c>
+      <c r="E262">
+        <v>214</v>
+      </c>
+      <c r="F262">
+        <v>4925</v>
+      </c>
+      <c r="G262" t="s">
+        <v>72</v>
+      </c>
+      <c r="H262">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A263" t="s">
+        <v>75</v>
+      </c>
+      <c r="B263" t="s">
+        <v>73</v>
+      </c>
+      <c r="C263">
+        <v>46.8</v>
+      </c>
+      <c r="D263">
+        <v>14.3</v>
+      </c>
+      <c r="E263">
+        <v>215</v>
+      </c>
+      <c r="F263">
+        <v>4850</v>
+      </c>
+      <c r="G263" t="s">
+        <v>72</v>
+      </c>
+      <c r="H263">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A264" t="s">
+        <v>75</v>
+      </c>
+      <c r="B264" t="s">
+        <v>73</v>
+      </c>
+      <c r="C264">
+        <v>50.4</v>
+      </c>
+      <c r="D264">
+        <v>15.7</v>
+      </c>
+      <c r="E264">
+        <v>222</v>
+      </c>
+      <c r="F264">
+        <v>5750</v>
+      </c>
+      <c r="G264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H264">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A265" t="s">
+        <v>75</v>
+      </c>
+      <c r="B265" t="s">
+        <v>73</v>
+      </c>
+      <c r="C265">
+        <v>45.2</v>
+      </c>
+      <c r="D265">
+        <v>14.8</v>
+      </c>
+      <c r="E265">
+        <v>212</v>
+      </c>
+      <c r="F265">
+        <v>5200</v>
+      </c>
+      <c r="G265" t="s">
+        <v>72</v>
+      </c>
+      <c r="H265">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A266" t="s">
+        <v>75</v>
+      </c>
+      <c r="B266" t="s">
+        <v>73</v>
+      </c>
+      <c r="C266">
+        <v>49.9</v>
+      </c>
+      <c r="D266">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E266">
+        <v>213</v>
+      </c>
+      <c r="F266">
+        <v>5400</v>
+      </c>
+      <c r="G266" t="s">
+        <v>71</v>
+      </c>
+      <c r="H266">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A267" t="s">
+        <v>76</v>
+      </c>
+      <c r="B267" t="s">
+        <v>74</v>
+      </c>
+      <c r="C267">
+        <v>46.5</v>
+      </c>
+      <c r="D267">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E267">
+        <v>192</v>
+      </c>
+      <c r="F267">
+        <v>3500</v>
+      </c>
+      <c r="G267" t="s">
+        <v>72</v>
+      </c>
+      <c r="H267">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A268" t="s">
+        <v>76</v>
+      </c>
+      <c r="B268" t="s">
+        <v>74</v>
+      </c>
+      <c r="C268">
+        <v>50</v>
+      </c>
+      <c r="D268">
+        <v>19.5</v>
+      </c>
+      <c r="E268">
+        <v>196</v>
+      </c>
+      <c r="F268">
+        <v>3900</v>
+      </c>
+      <c r="G268" t="s">
+        <v>71</v>
+      </c>
+      <c r="H268">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A269" t="s">
+        <v>76</v>
+      </c>
+      <c r="B269" t="s">
+        <v>74</v>
+      </c>
+      <c r="C269">
+        <v>51.3</v>
+      </c>
+      <c r="D269">
+        <v>19.2</v>
+      </c>
+      <c r="E269">
+        <v>193</v>
+      </c>
+      <c r="F269">
+        <v>3650</v>
+      </c>
+      <c r="G269" t="s">
+        <v>71</v>
+      </c>
+      <c r="H269">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A270" t="s">
+        <v>76</v>
+      </c>
+      <c r="B270" t="s">
+        <v>74</v>
+      </c>
+      <c r="C270">
+        <v>45.4</v>
+      </c>
+      <c r="D270">
+        <v>18.7</v>
+      </c>
+      <c r="E270">
+        <v>188</v>
+      </c>
+      <c r="F270">
+        <v>3525</v>
+      </c>
+      <c r="G270" t="s">
+        <v>72</v>
+      </c>
+      <c r="H270">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A271" t="s">
+        <v>76</v>
+      </c>
+      <c r="B271" t="s">
+        <v>74</v>
+      </c>
+      <c r="C271">
+        <v>52.7</v>
+      </c>
+      <c r="D271">
+        <v>19.8</v>
+      </c>
+      <c r="E271">
+        <v>197</v>
+      </c>
+      <c r="F271">
+        <v>3725</v>
+      </c>
+      <c r="G271" t="s">
+        <v>71</v>
+      </c>
+      <c r="H271">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A272" t="s">
+        <v>76</v>
+      </c>
+      <c r="B272" t="s">
+        <v>74</v>
+      </c>
+      <c r="C272">
+        <v>45.2</v>
+      </c>
+      <c r="D272">
+        <v>17.8</v>
+      </c>
+      <c r="E272">
+        <v>198</v>
+      </c>
+      <c r="F272">
+        <v>3950</v>
+      </c>
+      <c r="G272" t="s">
+        <v>72</v>
+      </c>
+      <c r="H272">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A273" t="s">
+        <v>76</v>
+      </c>
+      <c r="B273" t="s">
+        <v>74</v>
+      </c>
+      <c r="C273">
+        <v>46.1</v>
+      </c>
+      <c r="D273">
+        <v>18.2</v>
+      </c>
+      <c r="E273">
+        <v>178</v>
+      </c>
+      <c r="F273">
+        <v>3250</v>
+      </c>
+      <c r="G273" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A274" t="s">
+        <v>76</v>
+      </c>
+      <c r="B274" t="s">
+        <v>74</v>
+      </c>
+      <c r="C274">
+        <v>51.3</v>
+      </c>
+      <c r="D274">
+        <v>18.2</v>
+      </c>
+      <c r="E274">
+        <v>197</v>
+      </c>
+      <c r="F274">
+        <v>3750</v>
+      </c>
+      <c r="G274" t="s">
+        <v>71</v>
+      </c>
+      <c r="H274">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A275" t="s">
+        <v>76</v>
+      </c>
+      <c r="B275" t="s">
+        <v>74</v>
+      </c>
+      <c r="C275">
+        <v>46</v>
+      </c>
+      <c r="D275">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E275">
+        <v>195</v>
+      </c>
+      <c r="F275">
+        <v>4150</v>
+      </c>
+      <c r="G275" t="s">
+        <v>72</v>
+      </c>
+      <c r="H275">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A276" t="s">
+        <v>76</v>
+      </c>
+      <c r="B276" t="s">
+        <v>74</v>
+      </c>
+      <c r="C276">
+        <v>51.3</v>
+      </c>
+      <c r="D276">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E276">
+        <v>198</v>
+      </c>
+      <c r="F276">
+        <v>3700</v>
+      </c>
+      <c r="G276" t="s">
+        <v>71</v>
+      </c>
+      <c r="H276">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A277" t="s">
+        <v>76</v>
+      </c>
+      <c r="B277" t="s">
+        <v>74</v>
+      </c>
+      <c r="C277">
+        <v>46.6</v>
+      </c>
+      <c r="D277">
+        <v>17.8</v>
+      </c>
+      <c r="E277">
+        <v>193</v>
+      </c>
+      <c r="F277">
+        <v>3800</v>
+      </c>
+      <c r="G277" t="s">
+        <v>72</v>
+      </c>
+      <c r="H277">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A278" t="s">
+        <v>76</v>
+      </c>
+      <c r="B278" t="s">
+        <v>74</v>
+      </c>
+      <c r="C278">
+        <v>51.7</v>
+      </c>
+      <c r="D278">
+        <v>20.3</v>
+      </c>
+      <c r="E278">
+        <v>194</v>
+      </c>
+      <c r="F278">
+        <v>3775</v>
+      </c>
+      <c r="G278" t="s">
+        <v>71</v>
+      </c>
+      <c r="H278">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A279" t="s">
+        <v>76</v>
+      </c>
+      <c r="B279" t="s">
+        <v>74</v>
+      </c>
+      <c r="C279">
+        <v>47</v>
+      </c>
+      <c r="D279">
+        <v>17.3</v>
+      </c>
+      <c r="E279">
+        <v>185</v>
+      </c>
+      <c r="F279">
+        <v>3700</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A280" t="s">
+        <v>76</v>
+      </c>
+      <c r="B280" t="s">
+        <v>74</v>
+      </c>
+      <c r="C280">
+        <v>52</v>
+      </c>
+      <c r="D280">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E280">
+        <v>201</v>
+      </c>
+      <c r="F280">
+        <v>4050</v>
+      </c>
+      <c r="G280" t="s">
+        <v>71</v>
+      </c>
+      <c r="H280">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A281" t="s">
+        <v>76</v>
+      </c>
+      <c r="B281" t="s">
+        <v>74</v>
+      </c>
+      <c r="C281">
+        <v>45.9</v>
+      </c>
+      <c r="D281">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E281">
+        <v>190</v>
+      </c>
+      <c r="F281">
+        <v>3575</v>
+      </c>
+      <c r="G281" t="s">
+        <v>72</v>
+      </c>
+      <c r="H281">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A282" t="s">
+        <v>76</v>
+      </c>
+      <c r="B282" t="s">
+        <v>74</v>
+      </c>
+      <c r="C282">
+        <v>50.5</v>
+      </c>
+      <c r="D282">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E282">
+        <v>201</v>
+      </c>
+      <c r="F282">
+        <v>4050</v>
+      </c>
+      <c r="G282" t="s">
+        <v>71</v>
+      </c>
+      <c r="H282">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A283" t="s">
+        <v>76</v>
+      </c>
+      <c r="B283" t="s">
+        <v>74</v>
+      </c>
+      <c r="C283">
+        <v>50.3</v>
+      </c>
+      <c r="D283">
+        <v>20</v>
+      </c>
+      <c r="E283">
+        <v>197</v>
+      </c>
+      <c r="F283">
+        <v>3300</v>
+      </c>
+      <c r="G283" t="s">
+        <v>71</v>
+      </c>
+      <c r="H283">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A284" t="s">
+        <v>76</v>
+      </c>
+      <c r="B284" t="s">
+        <v>74</v>
+      </c>
+      <c r="C284">
+        <v>58</v>
+      </c>
+      <c r="D284">
+        <v>17.8</v>
+      </c>
+      <c r="E284">
+        <v>181</v>
+      </c>
+      <c r="F284">
+        <v>3700</v>
+      </c>
+      <c r="G284" t="s">
+        <v>72</v>
+      </c>
+      <c r="H284">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A285" t="s">
+        <v>76</v>
+      </c>
+      <c r="B285" t="s">
+        <v>74</v>
+      </c>
+      <c r="C285">
+        <v>46.4</v>
+      </c>
+      <c r="D285">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E285">
+        <v>190</v>
+      </c>
+      <c r="F285">
+        <v>3450</v>
+      </c>
+      <c r="G285" t="s">
+        <v>72</v>
+      </c>
+      <c r="H285">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A286" t="s">
+        <v>76</v>
+      </c>
+      <c r="B286" t="s">
+        <v>74</v>
+      </c>
+      <c r="C286">
+        <v>49.2</v>
+      </c>
+      <c r="D286">
+        <v>18.2</v>
+      </c>
+      <c r="E286">
+        <v>195</v>
+      </c>
+      <c r="F286">
+        <v>4400</v>
+      </c>
+      <c r="G286" t="s">
+        <v>71</v>
+      </c>
+      <c r="H286">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A287" t="s">
+        <v>76</v>
+      </c>
+      <c r="B287" t="s">
+        <v>74</v>
+      </c>
+      <c r="C287">
+        <v>42.4</v>
+      </c>
+      <c r="D287">
+        <v>17.3</v>
+      </c>
+      <c r="E287">
+        <v>181</v>
+      </c>
+      <c r="F287">
+        <v>3600</v>
+      </c>
+      <c r="G287" t="s">
+        <v>72</v>
+      </c>
+      <c r="H287">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A288" t="s">
+        <v>76</v>
+      </c>
+      <c r="B288" t="s">
+        <v>74</v>
+      </c>
+      <c r="C288">
+        <v>48.5</v>
+      </c>
+      <c r="D288">
+        <v>17.5</v>
+      </c>
+      <c r="E288">
+        <v>191</v>
+      </c>
+      <c r="F288">
+        <v>3400</v>
+      </c>
+      <c r="G288" t="s">
+        <v>71</v>
+      </c>
+      <c r="H288">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A289" t="s">
+        <v>76</v>
+      </c>
+      <c r="B289" t="s">
+        <v>74</v>
+      </c>
+      <c r="C289">
+        <v>43.2</v>
+      </c>
+      <c r="D289">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E289">
+        <v>187</v>
+      </c>
+      <c r="F289">
+        <v>2900</v>
+      </c>
+      <c r="G289" t="s">
+        <v>72</v>
+      </c>
+      <c r="H289">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A290" t="s">
+        <v>76</v>
+      </c>
+      <c r="B290" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290">
+        <v>50.6</v>
+      </c>
+      <c r="D290">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E290">
+        <v>193</v>
+      </c>
+      <c r="F290">
+        <v>3800</v>
+      </c>
+      <c r="G290" t="s">
+        <v>71</v>
+      </c>
+      <c r="H290">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A291" t="s">
+        <v>76</v>
+      </c>
+      <c r="B291" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291">
+        <v>46.7</v>
+      </c>
+      <c r="D291">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E291">
+        <v>195</v>
+      </c>
+      <c r="F291">
+        <v>3300</v>
+      </c>
+      <c r="G291" t="s">
+        <v>72</v>
+      </c>
+      <c r="H291">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A292" t="s">
+        <v>76</v>
+      </c>
+      <c r="B292" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292">
+        <v>52</v>
+      </c>
+      <c r="D292">
+        <v>19</v>
+      </c>
+      <c r="E292">
+        <v>197</v>
+      </c>
+      <c r="F292">
+        <v>4150</v>
+      </c>
+      <c r="G292" t="s">
+        <v>71</v>
+      </c>
+      <c r="H292">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A293" t="s">
+        <v>76</v>
+      </c>
+      <c r="B293" t="s">
+        <v>74</v>
+      </c>
+      <c r="C293">
+        <v>50.5</v>
+      </c>
+      <c r="D293">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E293">
+        <v>200</v>
+      </c>
+      <c r="F293">
+        <v>3400</v>
+      </c>
+      <c r="G293" t="s">
+        <v>72</v>
+      </c>
+      <c r="H293">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A294" t="s">
+        <v>76</v>
+      </c>
+      <c r="B294" t="s">
+        <v>74</v>
+      </c>
+      <c r="C294">
+        <v>49.5</v>
+      </c>
+      <c r="D294">
+        <v>19</v>
+      </c>
+      <c r="E294">
+        <v>200</v>
+      </c>
+      <c r="F294">
+        <v>3800</v>
+      </c>
+      <c r="G294" t="s">
+        <v>71</v>
+      </c>
+      <c r="H294">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A295" t="s">
+        <v>76</v>
+      </c>
+      <c r="B295" t="s">
+        <v>74</v>
+      </c>
+      <c r="C295">
+        <v>46.4</v>
+      </c>
+      <c r="D295">
+        <v>17.8</v>
+      </c>
+      <c r="E295">
+        <v>191</v>
+      </c>
+      <c r="F295">
+        <v>3700</v>
+      </c>
+      <c r="G295" t="s">
+        <v>72</v>
+      </c>
+      <c r="H295">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A296" t="s">
+        <v>76</v>
+      </c>
+      <c r="B296" t="s">
+        <v>74</v>
+      </c>
+      <c r="C296">
+        <v>52.8</v>
+      </c>
+      <c r="D296">
+        <v>20</v>
+      </c>
+      <c r="E296">
+        <v>205</v>
+      </c>
+      <c r="F296">
+        <v>4550</v>
+      </c>
+      <c r="G296" t="s">
+        <v>71</v>
+      </c>
+      <c r="H296">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A297" t="s">
+        <v>76</v>
+      </c>
+      <c r="B297" t="s">
+        <v>74</v>
+      </c>
+      <c r="C297">
+        <v>40.9</v>
+      </c>
+      <c r="D297">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E297">
+        <v>187</v>
+      </c>
+      <c r="F297">
+        <v>3200</v>
+      </c>
+      <c r="G297" t="s">
+        <v>72</v>
+      </c>
+      <c r="H297">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A298" t="s">
+        <v>76</v>
+      </c>
+      <c r="B298" t="s">
+        <v>74</v>
+      </c>
+      <c r="C298">
+        <v>54.2</v>
+      </c>
+      <c r="D298">
+        <v>20.8</v>
+      </c>
+      <c r="E298">
+        <v>201</v>
+      </c>
+      <c r="F298">
+        <v>4300</v>
+      </c>
+      <c r="G298" t="s">
+        <v>71</v>
+      </c>
+      <c r="H298">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A299" t="s">
+        <v>76</v>
+      </c>
+      <c r="B299" t="s">
+        <v>74</v>
+      </c>
+      <c r="C299">
+        <v>42.5</v>
+      </c>
+      <c r="D299">
+        <v>16.7</v>
+      </c>
+      <c r="E299">
+        <v>187</v>
+      </c>
+      <c r="F299">
+        <v>3350</v>
+      </c>
+      <c r="G299" t="s">
+        <v>72</v>
+      </c>
+      <c r="H299">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A300" t="s">
+        <v>76</v>
+      </c>
+      <c r="B300" t="s">
+        <v>74</v>
+      </c>
+      <c r="C300">
+        <v>51</v>
+      </c>
+      <c r="D300">
+        <v>18.8</v>
+      </c>
+      <c r="E300">
+        <v>203</v>
+      </c>
+      <c r="F300">
+        <v>4100</v>
+      </c>
+      <c r="G300" t="s">
+        <v>71</v>
+      </c>
+      <c r="H300">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A301" t="s">
+        <v>76</v>
+      </c>
+      <c r="B301" t="s">
+        <v>74</v>
+      </c>
+      <c r="C301">
+        <v>49.7</v>
+      </c>
+      <c r="D301">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E301">
+        <v>195</v>
+      </c>
+      <c r="F301">
+        <v>3600</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+      <c r="H301">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A302" t="s">
+        <v>76</v>
+      </c>
+      <c r="B302" t="s">
+        <v>74</v>
+      </c>
+      <c r="C302">
+        <v>47.5</v>
+      </c>
+      <c r="D302">
+        <v>16.8</v>
+      </c>
+      <c r="E302">
+        <v>199</v>
+      </c>
+      <c r="F302">
+        <v>3900</v>
+      </c>
+      <c r="G302" t="s">
+        <v>72</v>
+      </c>
+      <c r="H302">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A303" t="s">
+        <v>76</v>
+      </c>
+      <c r="B303" t="s">
+        <v>74</v>
+      </c>
+      <c r="C303">
+        <v>47.6</v>
+      </c>
+      <c r="D303">
+        <v>18.3</v>
+      </c>
+      <c r="E303">
+        <v>195</v>
+      </c>
+      <c r="F303">
+        <v>3850</v>
+      </c>
+      <c r="G303" t="s">
+        <v>72</v>
+      </c>
+      <c r="H303">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A304" t="s">
+        <v>76</v>
+      </c>
+      <c r="B304" t="s">
+        <v>74</v>
+      </c>
+      <c r="C304">
+        <v>52</v>
+      </c>
+      <c r="D304">
+        <v>20.7</v>
+      </c>
+      <c r="E304">
+        <v>210</v>
+      </c>
+      <c r="F304">
+        <v>4800</v>
+      </c>
+      <c r="G304" t="s">
+        <v>71</v>
+      </c>
+      <c r="H304">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A305" t="s">
+        <v>76</v>
+      </c>
+      <c r="B305" t="s">
+        <v>74</v>
+      </c>
+      <c r="C305">
+        <v>46.9</v>
+      </c>
+      <c r="D305">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E305">
+        <v>192</v>
+      </c>
+      <c r="F305">
+        <v>2700</v>
+      </c>
+      <c r="G305" t="s">
+        <v>72</v>
+      </c>
+      <c r="H305">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A306" t="s">
+        <v>76</v>
+      </c>
+      <c r="B306" t="s">
+        <v>74</v>
+      </c>
+      <c r="C306">
+        <v>53.5</v>
+      </c>
+      <c r="D306">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E306">
+        <v>205</v>
+      </c>
+      <c r="F306">
+        <v>4500</v>
+      </c>
+      <c r="G306" t="s">
+        <v>71</v>
+      </c>
+      <c r="H306">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A307" t="s">
+        <v>76</v>
+      </c>
+      <c r="B307" t="s">
+        <v>74</v>
+      </c>
+      <c r="C307">
+        <v>49</v>
+      </c>
+      <c r="D307">
+        <v>19.5</v>
+      </c>
+      <c r="E307">
+        <v>210</v>
+      </c>
+      <c r="F307">
+        <v>3950</v>
+      </c>
+      <c r="G307" t="s">
+        <v>71</v>
+      </c>
+      <c r="H307">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A308" t="s">
+        <v>76</v>
+      </c>
+      <c r="B308" t="s">
+        <v>74</v>
+      </c>
+      <c r="C308">
+        <v>46.2</v>
+      </c>
+      <c r="D308">
+        <v>17.5</v>
+      </c>
+      <c r="E308">
+        <v>187</v>
+      </c>
+      <c r="F308">
+        <v>3650</v>
+      </c>
+      <c r="G308" t="s">
+        <v>72</v>
+      </c>
+      <c r="H308">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A309" t="s">
+        <v>76</v>
+      </c>
+      <c r="B309" t="s">
+        <v>74</v>
+      </c>
+      <c r="C309">
+        <v>50.9</v>
+      </c>
+      <c r="D309">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E309">
+        <v>196</v>
+      </c>
+      <c r="F309">
+        <v>3550</v>
+      </c>
+      <c r="G309" t="s">
+        <v>71</v>
+      </c>
+      <c r="H309">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A310" t="s">
+        <v>76</v>
+      </c>
+      <c r="B310" t="s">
+        <v>74</v>
+      </c>
+      <c r="C310">
+        <v>45.5</v>
+      </c>
+      <c r="D310">
+        <v>17</v>
+      </c>
+      <c r="E310">
+        <v>196</v>
+      </c>
+      <c r="F310">
+        <v>3500</v>
+      </c>
+      <c r="G310" t="s">
+        <v>72</v>
+      </c>
+      <c r="H310">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A311" t="s">
+        <v>76</v>
+      </c>
+      <c r="B311" t="s">
+        <v>74</v>
+      </c>
+      <c r="C311">
+        <v>50.9</v>
+      </c>
+      <c r="D311">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E311">
+        <v>196</v>
+      </c>
+      <c r="F311">
+        <v>3675</v>
+      </c>
+      <c r="G311" t="s">
+        <v>72</v>
+      </c>
+      <c r="H311">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A312" t="s">
+        <v>76</v>
+      </c>
+      <c r="B312" t="s">
+        <v>74</v>
+      </c>
+      <c r="C312">
+        <v>50.8</v>
+      </c>
+      <c r="D312">
+        <v>18.5</v>
+      </c>
+      <c r="E312">
+        <v>201</v>
+      </c>
+      <c r="F312">
+        <v>4450</v>
+      </c>
+      <c r="G312" t="s">
+        <v>71</v>
+      </c>
+      <c r="H312">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A313" t="s">
+        <v>76</v>
+      </c>
+      <c r="B313" t="s">
+        <v>74</v>
+      </c>
+      <c r="C313">
+        <v>50.1</v>
+      </c>
+      <c r="D313">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E313">
+        <v>190</v>
+      </c>
+      <c r="F313">
+        <v>3400</v>
+      </c>
+      <c r="G313" t="s">
+        <v>72</v>
+      </c>
+      <c r="H313">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A314" t="s">
+        <v>76</v>
+      </c>
+      <c r="B314" t="s">
+        <v>74</v>
+      </c>
+      <c r="C314">
+        <v>49</v>
+      </c>
+      <c r="D314">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E314">
+        <v>212</v>
+      </c>
+      <c r="F314">
+        <v>4300</v>
+      </c>
+      <c r="G314" t="s">
+        <v>71</v>
+      </c>
+      <c r="H314">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A315" t="s">
+        <v>76</v>
+      </c>
+      <c r="B315" t="s">
+        <v>74</v>
+      </c>
+      <c r="C315">
+        <v>51.5</v>
+      </c>
+      <c r="D315">
+        <v>18.7</v>
+      </c>
+      <c r="E315">
+        <v>187</v>
+      </c>
+      <c r="F315">
+        <v>3250</v>
+      </c>
+      <c r="G315" t="s">
+        <v>71</v>
+      </c>
+      <c r="H315">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A316" t="s">
+        <v>76</v>
+      </c>
+      <c r="B316" t="s">
+        <v>74</v>
+      </c>
+      <c r="C316">
+        <v>49.8</v>
+      </c>
+      <c r="D316">
+        <v>17.3</v>
+      </c>
+      <c r="E316">
+        <v>198</v>
+      </c>
+      <c r="F316">
+        <v>3675</v>
+      </c>
+      <c r="G316" t="s">
+        <v>72</v>
+      </c>
+      <c r="H316">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A317" t="s">
+        <v>76</v>
+      </c>
+      <c r="B317" t="s">
+        <v>74</v>
+      </c>
+      <c r="C317">
+        <v>48.1</v>
+      </c>
+      <c r="D317">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E317">
+        <v>199</v>
+      </c>
+      <c r="F317">
+        <v>3325</v>
+      </c>
+      <c r="G317" t="s">
+        <v>72</v>
+      </c>
+      <c r="H317">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A318" t="s">
+        <v>76</v>
+      </c>
+      <c r="B318" t="s">
+        <v>74</v>
+      </c>
+      <c r="C318">
+        <v>51.4</v>
+      </c>
+      <c r="D318">
+        <v>19</v>
+      </c>
+      <c r="E318">
+        <v>201</v>
+      </c>
+      <c r="F318">
+        <v>3950</v>
+      </c>
+      <c r="G318" t="s">
+        <v>71</v>
+      </c>
+      <c r="H318">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A319" t="s">
+        <v>76</v>
+      </c>
+      <c r="B319" t="s">
+        <v>74</v>
+      </c>
+      <c r="C319">
+        <v>45.7</v>
+      </c>
+      <c r="D319">
+        <v>17.3</v>
+      </c>
+      <c r="E319">
+        <v>193</v>
+      </c>
+      <c r="F319">
+        <v>3600</v>
+      </c>
+      <c r="G319" t="s">
+        <v>72</v>
+      </c>
+      <c r="H319">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A320" t="s">
+        <v>76</v>
+      </c>
+      <c r="B320" t="s">
+        <v>74</v>
+      </c>
+      <c r="C320">
+        <v>50.7</v>
+      </c>
+      <c r="D320">
+        <v>19.7</v>
+      </c>
+      <c r="E320">
+        <v>203</v>
+      </c>
+      <c r="F320">
+        <v>4050</v>
+      </c>
+      <c r="G320" t="s">
+        <v>71</v>
+      </c>
+      <c r="H320">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A321" t="s">
+        <v>76</v>
+      </c>
+      <c r="B321" t="s">
+        <v>74</v>
+      </c>
+      <c r="C321">
+        <v>42.5</v>
+      </c>
+      <c r="D321">
+        <v>17.3</v>
+      </c>
+      <c r="E321">
+        <v>187</v>
+      </c>
+      <c r="F321">
+        <v>3350</v>
+      </c>
+      <c r="G321" t="s">
+        <v>72</v>
+      </c>
+      <c r="H321">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A322" t="s">
+        <v>76</v>
+      </c>
+      <c r="B322" t="s">
+        <v>74</v>
+      </c>
+      <c r="C322">
+        <v>52.2</v>
+      </c>
+      <c r="D322">
+        <v>18.8</v>
+      </c>
+      <c r="E322">
+        <v>197</v>
+      </c>
+      <c r="F322">
+        <v>3450</v>
+      </c>
+      <c r="G322" t="s">
+        <v>71</v>
+      </c>
+      <c r="H322">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A323" t="s">
+        <v>76</v>
+      </c>
+      <c r="B323" t="s">
+        <v>74</v>
+      </c>
+      <c r="C323">
+        <v>45.2</v>
+      </c>
+      <c r="D323">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E323">
+        <v>191</v>
+      </c>
+      <c r="F323">
+        <v>3250</v>
+      </c>
+      <c r="G323" t="s">
+        <v>72</v>
+      </c>
+      <c r="H323">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A324" t="s">
+        <v>76</v>
+      </c>
+      <c r="B324" t="s">
+        <v>74</v>
+      </c>
+      <c r="C324">
+        <v>49.3</v>
+      </c>
+      <c r="D324">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E324">
+        <v>203</v>
+      </c>
+      <c r="F324">
+        <v>4050</v>
+      </c>
+      <c r="G324" t="s">
+        <v>71</v>
+      </c>
+      <c r="H324">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A325" t="s">
+        <v>76</v>
+      </c>
+      <c r="B325" t="s">
+        <v>74</v>
+      </c>
+      <c r="C325">
+        <v>50.2</v>
+      </c>
+      <c r="D325">
+        <v>18.8</v>
+      </c>
+      <c r="E325">
+        <v>202</v>
+      </c>
+      <c r="F325">
+        <v>3800</v>
+      </c>
+      <c r="G325" t="s">
+        <v>71</v>
+      </c>
+      <c r="H325">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A326" t="s">
+        <v>76</v>
+      </c>
+      <c r="B326" t="s">
+        <v>74</v>
+      </c>
+      <c r="C326">
+        <v>45.6</v>
+      </c>
+      <c r="D326">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E326">
+        <v>194</v>
+      </c>
+      <c r="F326">
+        <v>3525</v>
+      </c>
+      <c r="G326" t="s">
+        <v>72</v>
+      </c>
+      <c r="H326">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A327" t="s">
+        <v>76</v>
+      </c>
+      <c r="B327" t="s">
+        <v>74</v>
+      </c>
+      <c r="C327">
+        <v>51.9</v>
+      </c>
+      <c r="D327">
+        <v>19.5</v>
+      </c>
+      <c r="E327">
+        <v>206</v>
+      </c>
+      <c r="F327">
+        <v>3950</v>
+      </c>
+      <c r="G327" t="s">
+        <v>71</v>
+      </c>
+      <c r="H327">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A328" t="s">
+        <v>76</v>
+      </c>
+      <c r="B328" t="s">
+        <v>74</v>
+      </c>
+      <c r="C328">
+        <v>46.8</v>
+      </c>
+      <c r="D328">
+        <v>16.5</v>
+      </c>
+      <c r="E328">
+        <v>189</v>
+      </c>
+      <c r="F328">
+        <v>3650</v>
+      </c>
+      <c r="G328" t="s">
+        <v>72</v>
+      </c>
+      <c r="H328">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A329" t="s">
+        <v>76</v>
+      </c>
+      <c r="B329" t="s">
+        <v>74</v>
+      </c>
+      <c r="C329">
+        <v>45.7</v>
+      </c>
+      <c r="D329">
+        <v>17</v>
+      </c>
+      <c r="E329">
+        <v>195</v>
+      </c>
+      <c r="F329">
+        <v>3650</v>
+      </c>
+      <c r="G329" t="s">
+        <v>72</v>
+      </c>
+      <c r="H329">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A330" t="s">
+        <v>76</v>
+      </c>
+      <c r="B330" t="s">
+        <v>74</v>
+      </c>
+      <c r="C330">
+        <v>55.8</v>
+      </c>
+      <c r="D330">
+        <v>19.8</v>
+      </c>
+      <c r="E330">
+        <v>207</v>
+      </c>
+      <c r="F330">
+        <v>4000</v>
+      </c>
+      <c r="G330" t="s">
+        <v>71</v>
+      </c>
+      <c r="H330">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A331" t="s">
+        <v>76</v>
+      </c>
+      <c r="B331" t="s">
+        <v>74</v>
+      </c>
+      <c r="C331">
+        <v>43.5</v>
+      </c>
+      <c r="D331">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E331">
+        <v>202</v>
+      </c>
+      <c r="F331">
+        <v>3400</v>
+      </c>
+      <c r="G331" t="s">
+        <v>72</v>
+      </c>
+      <c r="H331">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A332" t="s">
+        <v>76</v>
+      </c>
+      <c r="B332" t="s">
+        <v>74</v>
+      </c>
+      <c r="C332">
+        <v>49.6</v>
+      </c>
+      <c r="D332">
+        <v>18.2</v>
+      </c>
+      <c r="E332">
+        <v>193</v>
+      </c>
+      <c r="F332">
+        <v>3775</v>
+      </c>
+      <c r="G332" t="s">
+        <v>71</v>
+      </c>
+      <c r="H332">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A333" t="s">
+        <v>76</v>
+      </c>
+      <c r="B333" t="s">
+        <v>74</v>
+      </c>
+      <c r="C333">
+        <v>50.8</v>
+      </c>
+      <c r="D333">
+        <v>19</v>
+      </c>
+      <c r="E333">
+        <v>210</v>
+      </c>
+      <c r="F333">
+        <v>4100</v>
+      </c>
+      <c r="G333" t="s">
+        <v>71</v>
+      </c>
+      <c r="H333">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A334" t="s">
+        <v>76</v>
+      </c>
+      <c r="B334" t="s">
+        <v>74</v>
+      </c>
+      <c r="C334">
+        <v>50.2</v>
+      </c>
+      <c r="D334">
+        <v>18.7</v>
+      </c>
+      <c r="E334">
+        <v>198</v>
+      </c>
+      <c r="F334">
+        <v>3775</v>
+      </c>
+      <c r="G334" t="s">
+        <v>72</v>
+      </c>
+      <c r="H334">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>

--- a/ch_02/ch_02.xlsx
+++ b/ch_02/ch_02.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664D51A-D998-479B-8831-157DC362C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B2CFD-463D-473F-B263-90A29DCADDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{74D39968-1C19-4E83-835D-2153A2EDE06B}"/>
+    <workbookView xWindow="-17213" yWindow="997" windowWidth="17213" windowHeight="13291" xr2:uid="{74D39968-1C19-4E83-835D-2153A2EDE06B}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="3" r:id="rId1"/>
     <sheet name="penguins" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -141,9 +138,6 @@
     <t>Chinstrap</t>
   </si>
   <si>
-    <t>Rubber Bands</t>
-  </si>
-  <si>
     <t>bl_bd_ratio</t>
   </si>
   <si>
@@ -154,6 +148,9 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>Rubber Bands</t>
   </si>
 </sst>
 </file>
@@ -216,28 +213,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="sales"/>
-      <sheetName val="sales-pq"/>
-      <sheetName val="penguins"/>
-      <sheetName val="penguins-pq"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88C3E9FF-9ABD-4338-8A9B-FB27E009824B}" name="sales" displayName="sales" ref="A1:E16" totalsRowShown="0">
   <autoFilter ref="A1:E16" xr:uid="{88C3E9FF-9ABD-4338-8A9B-FB27E009824B}"/>
@@ -263,9 +238,7 @@
     <tableColumn id="5" xr3:uid="{D4DDD5D5-7535-4C24-A9A7-DFC5F41B25C9}" name="flipper_length_mm"/>
     <tableColumn id="6" xr3:uid="{C559E423-FCD2-44FD-B4D2-D4DBA1A17F23}" name="body_mass_g"/>
     <tableColumn id="7" xr3:uid="{3785C424-BE18-4585-95B4-4DFE032981C3}" name="sex"/>
-    <tableColumn id="9" xr3:uid="{53926298-D3FF-457B-9D3F-727ECE07B589}" name="bl_bd_ratio" dataDxfId="0">
-      <calculatedColumnFormula>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="9" xr3:uid="{53926298-D3FF-457B-9D3F-727ECE07B589}" name="bl_bd_ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDAD2A-5730-4A27-896C-AA81286B9D15}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -844,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -865,7 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08218E-BB65-4D4E-8560-85DA88395E02}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -892,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.65">
@@ -915,10 +890,9 @@
         <v>3400</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0655737704918029</v>
       </c>
     </row>
@@ -942,10 +916,9 @@
         <v>3600</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0160427807486632</v>
       </c>
     </row>
@@ -969,10 +942,9 @@
         <v>3800</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8697916666666667</v>
       </c>
     </row>
@@ -996,10 +968,9 @@
         <v>3950</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1104972375690609</v>
       </c>
     </row>
@@ -1023,10 +994,9 @@
         <v>3800</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2558139534883721</v>
       </c>
     </row>
@@ -1050,10 +1020,9 @@
         <v>3800</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8677248677248677</v>
       </c>
     </row>
@@ -1077,10 +1046,9 @@
         <v>3550</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.182795698924731</v>
       </c>
     </row>
@@ -1104,10 +1072,9 @@
         <v>3200</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2625698324022347</v>
       </c>
     </row>
@@ -1131,10 +1098,9 @@
         <v>3150</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0376344086021505</v>
       </c>
     </row>
@@ -1158,10 +1124,9 @@
         <v>3950</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1428571428571432</v>
       </c>
     </row>
@@ -1185,10 +1150,9 @@
         <v>3500</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2372881355932206</v>
       </c>
     </row>
@@ -1212,10 +1176,9 @@
         <v>4300</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1216931216931219</v>
       </c>
     </row>
@@ -1239,10 +1202,9 @@
         <v>3450</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9553072625698324</v>
       </c>
     </row>
@@ -1266,10 +1228,9 @@
         <v>4050</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1538461538461537</v>
       </c>
     </row>
@@ -1293,10 +1254,9 @@
         <v>2900</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9060773480662982</v>
       </c>
     </row>
@@ -1320,10 +1280,9 @@
         <v>3700</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.225806451612903</v>
       </c>
     </row>
@@ -1347,10 +1306,9 @@
         <v>3550</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2285714285714286</v>
       </c>
     </row>
@@ -1374,10 +1332,9 @@
         <v>3800</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1595744680851063</v>
       </c>
     </row>
@@ -1401,10 +1358,9 @@
         <v>2850</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1987951807228914</v>
       </c>
     </row>
@@ -1428,10 +1384,9 @@
         <v>3750</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9685863874345548</v>
       </c>
     </row>
@@ -1455,10 +1410,9 @@
         <v>3150</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1124260355029589</v>
       </c>
     </row>
@@ -1482,10 +1436,9 @@
         <v>4400</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9573459715639807</v>
       </c>
     </row>
@@ -1509,10 +1462,9 @@
         <v>3600</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2117647058823531</v>
       </c>
     </row>
@@ -1536,10 +1488,9 @@
         <v>4050</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2582417582417582</v>
       </c>
     </row>
@@ -1563,10 +1514,9 @@
         <v>2850</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1286549707602336</v>
       </c>
     </row>
@@ -1590,10 +1540,9 @@
         <v>3950</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3111111111111113</v>
       </c>
     </row>
@@ -1617,10 +1566,9 @@
         <v>3350</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.191358024691358</v>
       </c>
     </row>
@@ -1644,10 +1592,9 @@
         <v>4100</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1518324607329844</v>
       </c>
     </row>
@@ -1671,10 +1618,9 @@
         <v>3725</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9553072625698324</v>
       </c>
     </row>
@@ -1698,10 +1644,9 @@
         <v>4725</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -1725,10 +1670,9 @@
         <v>3075</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3562500000000002</v>
       </c>
     </row>
@@ -1752,10 +1696,9 @@
         <v>4250</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.89</v>
       </c>
     </row>
@@ -1779,10 +1722,9 @@
         <v>2925</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0376344086021505</v>
       </c>
     </row>
@@ -1806,10 +1748,9 @@
         <v>3550</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1005291005291009</v>
       </c>
     </row>
@@ -1833,10 +1774,9 @@
         <v>3750</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2441860465116279</v>
       </c>
     </row>
@@ -1860,10 +1800,9 @@
         <v>3900</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9100000000000001</v>
       </c>
     </row>
@@ -1887,10 +1826,9 @@
         <v>3175</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2411764705882353</v>
       </c>
     </row>
@@ -1914,10 +1852,9 @@
         <v>4775</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2736842105263158</v>
       </c>
     </row>
@@ -1941,10 +1878,9 @@
         <v>3825</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3090909090909091</v>
       </c>
     </row>
@@ -1968,10 +1904,9 @@
         <v>4600</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2463054187192117</v>
       </c>
     </row>
@@ -1995,10 +1930,9 @@
         <v>3200</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2429378531073447</v>
       </c>
     </row>
@@ -2022,10 +1956,9 @@
         <v>4275</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1641025641025644</v>
       </c>
     </row>
@@ -2049,10 +1982,9 @@
         <v>3900</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9130434782608696</v>
       </c>
     </row>
@@ -2076,10 +2008,9 @@
         <v>4075</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -2103,10 +2034,9 @@
         <v>4500</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4924242424242427</v>
       </c>
     </row>
@@ -2130,10 +2060,9 @@
         <v>5700</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0674846625766872</v>
       </c>
     </row>
@@ -2157,10 +2086,9 @@
         <v>4450</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4539007092198584</v>
       </c>
     </row>
@@ -2184,10 +2112,9 @@
         <v>5700</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2894736842105265</v>
       </c>
     </row>
@@ -2211,10 +2138,9 @@
         <v>5400</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2827586206896551</v>
       </c>
     </row>
@@ -2238,10 +2164,9 @@
         <v>4550</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4444444444444446</v>
       </c>
     </row>
@@ -2265,10 +2190,9 @@
         <v>4800</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1095890410958904</v>
       </c>
     </row>
@@ -2292,10 +2216,9 @@
         <v>5200</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0522875816993467</v>
       </c>
     </row>
@@ -2319,10 +2242,9 @@
         <v>4400</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2313432835820892</v>
       </c>
     </row>
@@ -2346,10 +2268,9 @@
         <v>5150</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0389610389610389</v>
       </c>
     </row>
@@ -2373,10 +2294,9 @@
         <v>4650</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9854014598540148</v>
       </c>
     </row>
@@ -2400,10 +2320,9 @@
         <v>5550</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.043478260869565</v>
       </c>
     </row>
@@ -2427,10 +2346,9 @@
         <v>4650</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3211678832116789</v>
       </c>
     </row>
@@ -2454,10 +2372,9 @@
         <v>5850</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3150684931506849</v>
       </c>
     </row>
@@ -2481,10 +2398,9 @@
         <v>4200</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1369863013698631</v>
       </c>
     </row>
@@ -2508,10 +2424,9 @@
         <v>5850</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1401273885350318</v>
       </c>
     </row>
@@ -2535,10 +2450,9 @@
         <v>4150</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1111111111111112</v>
       </c>
     </row>
@@ -2562,10 +2476,9 @@
         <v>6300</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2368421052631584</v>
       </c>
     </row>
@@ -2589,10 +2502,9 @@
         <v>4800</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1862068965517243</v>
       </c>
     </row>
@@ -2616,10 +2528,9 @@
         <v>5350</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2251655629139075</v>
       </c>
     </row>
@@ -2643,10 +2554,9 @@
         <v>5700</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.5104895104895104</v>
       </c>
     </row>
@@ -2670,10 +2580,9 @@
         <v>5000</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1103448275862071</v>
       </c>
     </row>
@@ -2697,10 +2606,9 @@
         <v>4400</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2068965517241379</v>
       </c>
     </row>
@@ -2724,10 +2632,9 @@
         <v>5050</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9303797468354427</v>
       </c>
     </row>
@@ -2751,10 +2658,9 @@
         <v>5000</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2748091603053435</v>
       </c>
     </row>
@@ -2778,10 +2684,9 @@
         <v>5100</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0529801324503314</v>
       </c>
     </row>
@@ -2805,10 +2710,9 @@
         <v>4100</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1118881118881117</v>
       </c>
     </row>
@@ -2832,10 +2736,9 @@
         <v>5650</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1866666666666665</v>
       </c>
     </row>
@@ -2859,10 +2762,9 @@
         <v>4600</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3706293706293708</v>
       </c>
     </row>
@@ -2886,10 +2788,9 @@
         <v>5550</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2679738562091503</v>
       </c>
     </row>
@@ -2913,10 +2814,9 @@
         <v>5250</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0915032679738559</v>
       </c>
     </row>
@@ -2940,10 +2840,9 @@
         <v>4700</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0140845070422535</v>
       </c>
     </row>
@@ -2967,10 +2866,9 @@
         <v>5050</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1103448275862071</v>
       </c>
     </row>
@@ -2994,10 +2892,9 @@
         <v>6050</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.5058823529411764</v>
       </c>
     </row>
@@ -3021,10 +2918,9 @@
         <v>5150</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3175675675675675</v>
       </c>
     </row>
@@ -3048,10 +2944,9 @@
         <v>5400</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9693251533742329</v>
       </c>
     </row>
@@ -3075,10 +2970,9 @@
         <v>4950</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1094890510948909</v>
       </c>
     </row>
@@ -3102,10 +2996,9 @@
         <v>5250</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5664739884393062</v>
       </c>
     </row>
@@ -3129,10 +3022,9 @@
         <v>4350</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2352941176470589</v>
       </c>
     </row>
@@ -3156,10 +3048,9 @@
         <v>5350</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1019108280254781</v>
       </c>
     </row>
@@ -3183,10 +3074,9 @@
         <v>3950</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1167883211678835</v>
       </c>
     </row>
@@ -3210,10 +3100,9 @@
         <v>5700</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1</v>
       </c>
     </row>
@@ -3237,10 +3126,9 @@
         <v>4300</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3065693430656933</v>
       </c>
     </row>
@@ -3264,10 +3152,9 @@
         <v>4750</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3066666666666666</v>
       </c>
     </row>
@@ -3291,10 +3178,9 @@
         <v>5550</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1761006289308176</v>
       </c>
     </row>
@@ -3318,10 +3204,9 @@
         <v>4900</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1366906474820144</v>
       </c>
     </row>
@@ -3345,10 +3230,9 @@
         <v>4200</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2733812949640289</v>
       </c>
     </row>
@@ -3372,10 +3256,9 @@
         <v>5400</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1761006289308176</v>
       </c>
     </row>
@@ -3399,10 +3282,9 @@
         <v>5100</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3759398496240598</v>
       </c>
     </row>
@@ -3426,10 +3308,9 @@
         <v>5300</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8607594936708862</v>
       </c>
     </row>
@@ -3453,10 +3334,9 @@
         <v>4850</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2816901408450705</v>
       </c>
     </row>
@@ -3480,10 +3360,9 @@
         <v>5300</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4397163120567376</v>
       </c>
     </row>
@@ -3507,10 +3386,9 @@
         <v>4400</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1319444444444446</v>
       </c>
     </row>
@@ -3534,10 +3412,9 @@
         <v>5000</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3400000000000003</v>
       </c>
     </row>
@@ -3561,10 +3438,9 @@
         <v>4900</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2291666666666665</v>
       </c>
     </row>
@@ -3588,10 +3464,9 @@
         <v>5050</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9220779220779218</v>
       </c>
     </row>
@@ -3615,10 +3490,9 @@
         <v>4300</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.151079136690647</v>
       </c>
     </row>
@@ -3642,10 +3516,9 @@
         <v>5000</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0333333333333332</v>
       </c>
     </row>
@@ -3669,10 +3542,9 @@
         <v>4450</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9793103448275864</v>
       </c>
     </row>
@@ -3696,10 +3568,9 @@
         <v>5550</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2941176470588234</v>
       </c>
     </row>
@@ -3723,10 +3594,9 @@
         <v>4200</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2826086956521734</v>
       </c>
     </row>
@@ -3750,10 +3620,9 @@
         <v>5300</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1006711409395975</v>
       </c>
     </row>
@@ -3777,10 +3646,9 @@
         <v>4400</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2877697841726619</v>
       </c>
     </row>
@@ -3804,10 +3672,9 @@
         <v>5650</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4585987261146496</v>
       </c>
     </row>
@@ -3831,10 +3698,9 @@
         <v>4700</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2253521126760565</v>
       </c>
     </row>
@@ -3858,10 +3724,9 @@
         <v>5700</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.964285714285714</v>
       </c>
     </row>
@@ -3885,10 +3750,9 @@
         <v>4650</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
@@ -3912,10 +3776,9 @@
         <v>5800</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0555555555555558</v>
       </c>
     </row>
@@ -3939,10 +3802,9 @@
         <v>4700</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.063380281690141</v>
       </c>
     </row>
@@ -3966,10 +3828,9 @@
         <v>5550</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3800000000000003</v>
       </c>
     </row>
@@ -3993,10 +3854,9 @@
         <v>4750</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.18</v>
       </c>
     </row>
@@ -4020,10 +3880,9 @@
         <v>5000</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9743589743589745</v>
       </c>
     </row>
@@ -4047,10 +3906,9 @@
         <v>5100</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0897435897435899</v>
       </c>
     </row>
@@ -4074,10 +3932,9 @@
         <v>5200</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1418918918918917</v>
       </c>
     </row>
@@ -4101,10 +3958,9 @@
         <v>4700</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0933333333333333</v>
       </c>
     </row>
@@ -4128,10 +3984,9 @@
         <v>5800</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0375000000000001</v>
       </c>
     </row>
@@ -4155,10 +4010,9 @@
         <v>4600</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3450704225352115</v>
       </c>
     </row>
@@ -4182,10 +4036,9 @@
         <v>6000</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1349693251533743</v>
       </c>
     </row>
@@ -4209,10 +4062,9 @@
         <v>4750</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2753623188405796</v>
       </c>
     </row>
@@ -4236,10 +4088,9 @@
         <v>5950</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.75609756097561</v>
       </c>
     </row>
@@ -4263,10 +4114,9 @@
         <v>4625</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.386206896551724</v>
       </c>
     </row>
@@ -4290,10 +4140,9 @@
         <v>5450</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3653846153846154</v>
       </c>
     </row>
@@ -4317,10 +4166,9 @@
         <v>4725</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2465753424657535</v>
       </c>
     </row>
@@ -4344,10 +4192,9 @@
         <v>5350</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1446540880503142</v>
       </c>
     </row>
@@ -4371,10 +4218,9 @@
         <v>4750</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2536231884057969</v>
       </c>
     </row>
@@ -4398,10 +4244,9 @@
         <v>5600</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9364161849710979</v>
       </c>
     </row>
@@ -4425,10 +4270,9 @@
         <v>4600</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0138888888888888</v>
       </c>
     </row>
@@ -4452,10 +4296,9 @@
         <v>5300</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.612676056338028</v>
       </c>
     </row>
@@ -4479,10 +4322,9 @@
         <v>4875</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3928571428571428</v>
       </c>
     </row>
@@ -4506,10 +4348,9 @@
         <v>5550</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0647058823529414</v>
       </c>
     </row>
@@ -4533,10 +4374,9 @@
         <v>4950</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -4560,10 +4400,9 @@
         <v>5400</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0526315789473681</v>
       </c>
     </row>
@@ -4587,10 +4426,9 @@
         <v>4750</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1379310344827585</v>
       </c>
     </row>
@@ -4614,10 +4452,9 @@
         <v>5650</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0745341614906829</v>
       </c>
     </row>
@@ -4641,10 +4478,9 @@
         <v>4850</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0272108843537415</v>
       </c>
     </row>
@@ -4668,10 +4504,9 @@
         <v>5200</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2356687898089174</v>
       </c>
     </row>
@@ -4695,10 +4530,9 @@
         <v>4925</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1265822784810124</v>
       </c>
     </row>
@@ -4722,10 +4556,9 @@
         <v>4875</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2123287671232879</v>
       </c>
     </row>
@@ -4749,10 +4582,9 @@
         <v>4625</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3611111111111107</v>
       </c>
     </row>
@@ -4776,10 +4608,9 @@
         <v>5250</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0969696969696972</v>
       </c>
     </row>
@@ -4803,10 +4634,9 @@
         <v>4850</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2333333333333334</v>
       </c>
     </row>
@@ -4830,10 +4660,9 @@
         <v>5600</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2882352941176469</v>
       </c>
     </row>
@@ -4857,10 +4686,9 @@
         <v>4975</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0451612903225809</v>
       </c>
     </row>
@@ -4884,10 +4712,9 @@
         <v>5500</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2733333333333334</v>
       </c>
     </row>
@@ -4911,10 +4738,9 @@
         <v>4725</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4275362318840576</v>
       </c>
     </row>
@@ -4938,10 +4764,9 @@
         <v>5500</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9068322981366457</v>
       </c>
     </row>
@@ -4965,10 +4790,9 @@
         <v>4700</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8367346938775513</v>
       </c>
     </row>
@@ -4992,10 +4816,9 @@
         <v>5500</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H153">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3797468354430378</v>
       </c>
     </row>
@@ -5019,10 +4842,9 @@
         <v>4575</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0928571428571425</v>
       </c>
     </row>
@@ -5046,10 +4868,9 @@
         <v>5500</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.185430463576159</v>
       </c>
     </row>
@@ -5073,10 +4894,9 @@
         <v>5000</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3223684210526319</v>
       </c>
     </row>
@@ -5100,10 +4920,9 @@
         <v>5950</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.132075471698113</v>
       </c>
     </row>
@@ -5127,10 +4946,9 @@
         <v>4650</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.861842105263158</v>
       </c>
     </row>
@@ -5154,10 +4972,9 @@
         <v>5500</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1595092024539877</v>
       </c>
     </row>
@@ -5181,10 +4998,9 @@
         <v>4375</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2765957446808511</v>
       </c>
     </row>
@@ -5208,10 +5024,9 @@
         <v>5850</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4437500000000001</v>
       </c>
     </row>
@@ -5235,10 +5050,9 @@
         <v>4875</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8343949044585988</v>
       </c>
     </row>
@@ -5262,10 +5076,9 @@
         <v>6000</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0123456790123457</v>
       </c>
     </row>
@@ -5289,10 +5102,9 @@
         <v>4925</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.445255474452555</v>
       </c>
     </row>
@@ -5304,10 +5116,9 @@
         <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H165" t="e">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5331,10 +5142,9 @@
         <v>4850</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2727272727272725</v>
       </c>
     </row>
@@ -5358,10 +5168,9 @@
         <v>5750</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2101910828025479</v>
       </c>
     </row>
@@ -5385,10 +5194,9 @@
         <v>5200</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0540540540540539</v>
       </c>
     </row>
@@ -5412,10 +5220,9 @@
         <v>5400</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0993788819875774</v>
       </c>
     </row>
@@ -5439,10 +5246,9 @@
         <v>3250</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3652694610778444</v>
       </c>
     </row>
@@ -5466,10 +5272,9 @@
         <v>3900</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0552486187845305</v>
       </c>
     </row>
@@ -5493,10 +5298,9 @@
         <v>3300</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H172">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2191011235955056</v>
       </c>
     </row>
@@ -5520,10 +5324,9 @@
         <v>3900</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1640211640211642</v>
       </c>
     </row>
@@ -5547,10 +5350,9 @@
         <v>3325</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1411764705882352</v>
       </c>
     </row>
@@ -5574,10 +5376,9 @@
         <v>4150</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8578199052132702</v>
       </c>
     </row>
@@ -5601,10 +5402,9 @@
         <v>3950</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.94</v>
       </c>
     </row>
@@ -5628,10 +5428,9 @@
         <v>3550</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2810810810810813</v>
       </c>
     </row>
@@ -5655,10 +5454,9 @@
         <v>3300</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9481865284974094</v>
       </c>
     </row>
@@ -5682,10 +5480,9 @@
         <v>4650</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.083769633507853</v>
       </c>
     </row>
@@ -5709,10 +5506,9 @@
         <v>3150</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0277777777777777</v>
       </c>
     </row>
@@ -5736,10 +5532,9 @@
         <v>3900</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H181">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2173913043478262</v>
       </c>
     </row>
@@ -5763,10 +5558,9 @@
         <v>3100</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9459459459459461</v>
       </c>
     </row>
@@ -5790,10 +5584,9 @@
         <v>4400</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2385786802030458</v>
       </c>
     </row>
@@ -5817,10 +5610,9 @@
         <v>3000</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1893491124260356</v>
       </c>
     </row>
@@ -5844,10 +5636,9 @@
         <v>4600</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1063829787234041</v>
       </c>
     </row>
@@ -5871,10 +5662,9 @@
         <v>3425</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1631578947368424</v>
       </c>
     </row>
@@ -5898,10 +5688,9 @@
         <v>2975</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H187">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9841269841269842</v>
       </c>
     </row>
@@ -5925,10 +5714,9 @@
         <v>3450</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H188">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.011173184357542</v>
       </c>
     </row>
@@ -5952,10 +5740,9 @@
         <v>4150</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H189">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9952830188679245</v>
       </c>
     </row>
@@ -5979,10 +5766,9 @@
         <v>3350</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.095505617977528</v>
       </c>
     </row>
@@ -6006,10 +5792,9 @@
         <v>3550</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0344827586206895</v>
       </c>
     </row>
@@ -6033,10 +5818,9 @@
         <v>3800</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8615384615384614</v>
       </c>
     </row>
@@ -6060,10 +5844,9 @@
         <v>3500</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H193">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9838709677419353</v>
       </c>
     </row>
@@ -6087,10 +5870,9 @@
         <v>3950</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9947916666666665</v>
       </c>
     </row>
@@ -6114,10 +5896,9 @@
         <v>3600</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0691489361702127</v>
       </c>
     </row>
@@ -6141,10 +5922,9 @@
         <v>3550</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9833333333333334</v>
       </c>
     </row>
@@ -6168,10 +5948,9 @@
         <v>4300</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.270718232044199</v>
       </c>
     </row>
@@ -6195,10 +5974,9 @@
         <v>3400</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H198">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9883040935672514</v>
       </c>
     </row>
@@ -6222,10 +6000,9 @@
         <v>4450</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1878453038674031</v>
       </c>
     </row>
@@ -6249,10 +6026,9 @@
         <v>3300</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0924855491329479</v>
       </c>
     </row>
@@ -6276,10 +6052,9 @@
         <v>4300</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1587301587301586</v>
       </c>
     </row>
@@ -6303,10 +6078,9 @@
         <v>3700</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0483870967741935</v>
       </c>
     </row>
@@ -6330,10 +6104,9 @@
         <v>4350</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1783783783783783</v>
       </c>
     </row>
@@ -6357,10 +6130,9 @@
         <v>2900</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0559006211180124</v>
       </c>
     </row>
@@ -6384,10 +6156,9 @@
         <v>4100</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3351351351351353</v>
       </c>
     </row>
@@ -6411,10 +6182,9 @@
         <v>3500</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H206">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9891891891891891</v>
       </c>
     </row>
@@ -6438,10 +6208,9 @@
         <v>4475</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0270270270270272</v>
       </c>
     </row>
@@ -6465,10 +6234,9 @@
         <v>3425</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H208">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1647727272727271</v>
       </c>
     </row>
@@ -6492,10 +6260,9 @@
         <v>3900</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H209">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3485714285714288</v>
       </c>
     </row>
@@ -6519,10 +6286,9 @@
         <v>3175</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0342857142857143</v>
       </c>
     </row>
@@ -6546,10 +6312,9 @@
         <v>3975</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H211">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2</v>
       </c>
     </row>
@@ -6573,10 +6338,9 @@
         <v>3400</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2424242424242422</v>
       </c>
     </row>
@@ -6600,10 +6364,9 @@
         <v>4250</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2178770949720672</v>
       </c>
     </row>
@@ -6627,10 +6390,9 @@
         <v>3400</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3508771929824559</v>
       </c>
     </row>
@@ -6654,10 +6416,9 @@
         <v>3475</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.36046511627907</v>
       </c>
     </row>
@@ -6681,10 +6442,9 @@
         <v>3050</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H216">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0709677419354842</v>
       </c>
     </row>
@@ -6708,10 +6468,9 @@
         <v>3725</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H217">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3941176470588239</v>
       </c>
     </row>
@@ -6735,10 +6494,9 @@
         <v>3000</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H218">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2202380952380949</v>
       </c>
     </row>
@@ -6762,10 +6520,9 @@
         <v>3650</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0855614973262031</v>
       </c>
     </row>
@@ -6789,10 +6546,9 @@
         <v>4250</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H220">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.10752688172043</v>
       </c>
     </row>
@@ -6816,10 +6572,9 @@
         <v>3475</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9891304347826089</v>
       </c>
     </row>
@@ -6843,10 +6598,9 @@
         <v>3450</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0224719101123596</v>
       </c>
     </row>
@@ -6870,10 +6624,9 @@
         <v>3750</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0883977900552484</v>
       </c>
     </row>
@@ -6897,10 +6650,9 @@
         <v>3700</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1052631578947367</v>
       </c>
     </row>
@@ -6924,10 +6676,9 @@
         <v>4000</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2432432432432434</v>
       </c>
     </row>
@@ -6951,10 +6702,9 @@
         <v>3500</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.597765363128492</v>
       </c>
     </row>
@@ -6978,10 +6728,9 @@
         <v>3900</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5641025641025643</v>
       </c>
     </row>
@@ -7005,10 +6754,9 @@
         <v>3650</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H228">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.671875</v>
       </c>
     </row>
@@ -7032,10 +6780,9 @@
         <v>3525</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.427807486631016</v>
       </c>
     </row>
@@ -7059,10 +6806,9 @@
         <v>3725</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6616161616161618</v>
       </c>
     </row>
@@ -7086,10 +6832,9 @@
         <v>3950</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5393258426966292</v>
       </c>
     </row>
@@ -7113,10 +6858,9 @@
         <v>3250</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H232">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5329670329670333</v>
       </c>
     </row>
@@ -7140,10 +6884,9 @@
         <v>3750</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H233">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8186813186813184</v>
       </c>
     </row>
@@ -7167,10 +6910,9 @@
         <v>4150</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H234">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4338624338624339</v>
       </c>
     </row>
@@ -7194,10 +6936,9 @@
         <v>3700</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5778894472361809</v>
       </c>
     </row>
@@ -7221,10 +6962,9 @@
         <v>3800</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H236">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6179775280898876</v>
       </c>
     </row>
@@ -7248,10 +6988,9 @@
         <v>3775</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H237">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5467980295566504</v>
       </c>
     </row>
@@ -7275,10 +7014,9 @@
         <v>3700</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H238">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7167630057803467</v>
       </c>
     </row>
@@ -7302,10 +7040,9 @@
         <v>4050</v>
       </c>
       <c r="G239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8729281767955799</v>
       </c>
     </row>
@@ -7329,10 +7066,9 @@
         <v>3575</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H240">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6842105263157894</v>
       </c>
     </row>
@@ -7356,10 +7092,9 @@
         <v>4050</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H241">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5765306122448979</v>
       </c>
     </row>
@@ -7383,10 +7118,9 @@
         <v>3300</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H242">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5149999999999997</v>
       </c>
     </row>
@@ -7410,10 +7144,9 @@
         <v>3700</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H243">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2584269662921348</v>
       </c>
     </row>
@@ -7437,10 +7170,9 @@
         <v>3450</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4946236559139781</v>
       </c>
     </row>
@@ -7464,10 +7196,9 @@
         <v>4400</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H245">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7032967032967035</v>
       </c>
     </row>
@@ -7491,10 +7222,9 @@
         <v>3600</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H246">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4508670520231211</v>
       </c>
     </row>
@@ -7518,10 +7248,9 @@
         <v>3400</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H247">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7714285714285714</v>
       </c>
     </row>
@@ -7545,10 +7274,9 @@
         <v>2900</v>
       </c>
       <c r="G248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6024096385542168</v>
       </c>
     </row>
@@ -7572,10 +7300,9 @@
         <v>3800</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6082474226804124</v>
       </c>
     </row>
@@ -7599,10 +7326,9 @@
         <v>3300</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H250">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.608938547486034</v>
       </c>
     </row>
@@ -7626,10 +7352,9 @@
         <v>4150</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.736842105263158</v>
       </c>
     </row>
@@ -7653,10 +7378,9 @@
         <v>3400</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H252">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7445652173913047</v>
       </c>
     </row>
@@ -7680,10 +7404,9 @@
         <v>3800</v>
       </c>
       <c r="G253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H253">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6052631578947367</v>
       </c>
     </row>
@@ -7707,10 +7430,9 @@
         <v>3700</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H254">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6067415730337076</v>
       </c>
     </row>
@@ -7734,10 +7456,9 @@
         <v>4550</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H255">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6399999999999997</v>
       </c>
     </row>
@@ -7761,10 +7482,9 @@
         <v>3200</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H256">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4638554216867465</v>
       </c>
     </row>
@@ -7788,10 +7508,9 @@
         <v>4300</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6057692307692308</v>
       </c>
     </row>
@@ -7815,10 +7534,9 @@
         <v>3350</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H258">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5449101796407185</v>
       </c>
     </row>
@@ -7842,10 +7560,9 @@
         <v>4100</v>
       </c>
       <c r="G259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H259">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7127659574468086</v>
       </c>
     </row>
@@ -7869,10 +7586,9 @@
         <v>3600</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H260">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.672043010752688</v>
       </c>
     </row>
@@ -7896,10 +7612,9 @@
         <v>3900</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H261">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8273809523809521</v>
       </c>
     </row>
@@ -7923,10 +7638,9 @@
         <v>3850</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H262">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6010928961748632</v>
       </c>
     </row>
@@ -7950,10 +7664,9 @@
         <v>4800</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H263">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5120772946859904</v>
       </c>
     </row>
@@ -7977,10 +7690,9 @@
         <v>2700</v>
       </c>
       <c r="G264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H264">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8253012048192767</v>
       </c>
     </row>
@@ -8004,10 +7716,9 @@
         <v>4500</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H265">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6884422110552766</v>
       </c>
     </row>
@@ -8031,10 +7742,9 @@
         <v>3950</v>
       </c>
       <c r="G266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H266">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5128205128205128</v>
       </c>
     </row>
@@ -8058,10 +7768,9 @@
         <v>3650</v>
       </c>
       <c r="G267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H267">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.64</v>
       </c>
     </row>
@@ -8085,10 +7794,9 @@
         <v>3550</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H268">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.664921465968586</v>
       </c>
     </row>
@@ -8112,10 +7820,9 @@
         <v>3500</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H269">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6764705882352939</v>
       </c>
     </row>
@@ -8139,10 +7846,9 @@
         <v>3675</v>
       </c>
       <c r="G270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H270">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8435754189944134</v>
       </c>
     </row>
@@ -8166,10 +7872,9 @@
         <v>4450</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H271">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7459459459459459</v>
       </c>
     </row>
@@ -8193,10 +7898,9 @@
         <v>3400</v>
       </c>
       <c r="G272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H272">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7988826815642462</v>
       </c>
     </row>
@@ -8220,10 +7924,9 @@
         <v>4300</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H273">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5</v>
       </c>
     </row>
@@ -8247,10 +7950,9 @@
         <v>3250</v>
       </c>
       <c r="G274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H274">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7540106951871657</v>
       </c>
     </row>
@@ -8274,10 +7976,9 @@
         <v>3675</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H275">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8786127167630053</v>
       </c>
     </row>
@@ -8301,10 +8002,9 @@
         <v>3325</v>
       </c>
       <c r="G276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H276">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9329268292682928</v>
       </c>
     </row>
@@ -8328,10 +8028,9 @@
         <v>3950</v>
       </c>
       <c r="G277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H277">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7052631578947368</v>
       </c>
     </row>
@@ -8355,10 +8054,9 @@
         <v>3600</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H278">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6416184971098264</v>
       </c>
     </row>
@@ -8382,10 +8080,9 @@
         <v>4050</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5736040609137056</v>
       </c>
     </row>
@@ -8409,10 +8106,9 @@
         <v>3350</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H280">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4566473988439306</v>
       </c>
     </row>
@@ -8436,10 +8132,9 @@
         <v>3450</v>
       </c>
       <c r="G281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H281">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7765957446808511</v>
       </c>
     </row>
@@ -8463,10 +8158,9 @@
         <v>3250</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H282">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7228915662650603</v>
       </c>
     </row>
@@ -8490,10 +8184,9 @@
         <v>4050</v>
       </c>
       <c r="G283" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H283">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4773869346733668</v>
       </c>
     </row>
@@ -8517,10 +8210,9 @@
         <v>3800</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H284">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6702127659574471</v>
       </c>
     </row>
@@ -8544,10 +8236,9 @@
         <v>3525</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H285">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3505154639175259</v>
       </c>
     </row>
@@ -8571,10 +8262,9 @@
         <v>3950</v>
       </c>
       <c r="G286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H286">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6615384615384614</v>
       </c>
     </row>
@@ -8598,10 +8288,9 @@
         <v>3650</v>
       </c>
       <c r="G287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H287">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.836363636363636</v>
       </c>
     </row>
@@ -8625,10 +8314,9 @@
         <v>3650</v>
       </c>
       <c r="G288" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H288">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6882352941176473</v>
       </c>
     </row>
@@ -8652,10 +8340,9 @@
         <v>4000</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H289">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8181818181818179</v>
       </c>
     </row>
@@ -8679,10 +8366,9 @@
         <v>3400</v>
       </c>
       <c r="G290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H290">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4033149171270716</v>
       </c>
     </row>
@@ -8706,10 +8392,9 @@
         <v>3775</v>
       </c>
       <c r="G291" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H291">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7252747252747254</v>
       </c>
     </row>
@@ -8733,10 +8418,9 @@
         <v>4100</v>
       </c>
       <c r="G292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H292">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6736842105263157</v>
       </c>
     </row>
@@ -8760,10 +8444,9 @@
         <v>3775</v>
       </c>
       <c r="G293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H293">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6844919786096257</v>
       </c>
     </row>
@@ -8787,10 +8470,9 @@
         <v>3750</v>
       </c>
       <c r="G294" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H294">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0909090909090913</v>
       </c>
     </row>
@@ -8814,10 +8496,9 @@
         <v>3800</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H295">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2701149425287359</v>
       </c>
     </row>
@@ -8841,10 +8522,9 @@
         <v>3250</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H296">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2388888888888889</v>
       </c>
     </row>
@@ -8856,10 +8536,9 @@
         <v>28</v>
       </c>
       <c r="G297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H297" t="e">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8883,10 +8562,9 @@
         <v>3450</v>
       </c>
       <c r="G298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H298">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9015544041450778</v>
       </c>
     </row>
@@ -8910,10 +8588,9 @@
         <v>3650</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H299">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.907766990291262</v>
       </c>
     </row>
@@ -8937,10 +8614,9 @@
         <v>3625</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.185393258426966</v>
       </c>
     </row>
@@ -8964,10 +8640,9 @@
         <v>4675</v>
       </c>
       <c r="G301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H301">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2</v>
       </c>
     </row>
@@ -8991,10 +8666,9 @@
         <v>3475</v>
       </c>
       <c r="G302" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H302">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8839779005524862</v>
       </c>
     </row>
@@ -9018,10 +8692,9 @@
         <v>4250</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H303">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0792079207920793</v>
       </c>
     </row>
@@ -9045,10 +8718,9 @@
         <v>3300</v>
       </c>
       <c r="G304" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H304">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2105263157894735</v>
       </c>
     </row>
@@ -9072,10 +8744,9 @@
         <v>3700</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H305">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1849710982658959</v>
       </c>
     </row>
@@ -9099,10 +8770,9 @@
         <v>3200</v>
       </c>
       <c r="G306" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H306">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3352272727272725</v>
       </c>
     </row>
@@ -9126,10 +8796,9 @@
         <v>3800</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H307">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8207547169811322</v>
       </c>
     </row>
@@ -9153,10 +8822,9 @@
         <v>4400</v>
       </c>
       <c r="G308" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H308">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.6398104265402844</v>
       </c>
     </row>
@@ -9180,10 +8848,9 @@
         <v>3700</v>
       </c>
       <c r="G309" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H309">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0561797752808988</v>
       </c>
     </row>
@@ -9207,10 +8874,9 @@
         <v>3450</v>
       </c>
       <c r="G310" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H310">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0368421052631582</v>
       </c>
     </row>
@@ -9234,10 +8900,9 @@
         <v>4500</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0531400966183577</v>
       </c>
     </row>
@@ -9261,10 +8926,9 @@
         <v>3325</v>
       </c>
       <c r="G312" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H312">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8695652173913044</v>
       </c>
     </row>
@@ -9288,10 +8952,9 @@
         <v>4200</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H313">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.13953488372093</v>
       </c>
     </row>
@@ -9315,10 +8978,9 @@
         <v>3050</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H314">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1626506024096384</v>
       </c>
     </row>
@@ -9342,10 +9004,9 @@
         <v>4450</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H315">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1546391752577319</v>
       </c>
     </row>
@@ -9369,10 +9030,9 @@
         <v>3600</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.763157894736842</v>
       </c>
     </row>
@@ -9396,10 +9056,9 @@
         <v>3900</v>
       </c>
       <c r="G317" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H317">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1576086956521743</v>
       </c>
     </row>
@@ -9423,10 +9082,9 @@
         <v>3550</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H318">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3023255813953489</v>
       </c>
     </row>
@@ -9450,10 +9108,9 @@
         <v>4150</v>
       </c>
       <c r="G319" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H319">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4232804232804233</v>
       </c>
     </row>
@@ -9477,10 +9134,9 @@
         <v>3700</v>
       </c>
       <c r="G320" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H320">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0285714285714285</v>
       </c>
     </row>
@@ -9504,10 +9160,9 @@
         <v>4250</v>
       </c>
       <c r="G321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H321">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3135135135135134</v>
       </c>
     </row>
@@ -9531,10 +9186,9 @@
         <v>3700</v>
       </c>
       <c r="G322" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H322">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4345238095238093</v>
       </c>
     </row>
@@ -9558,10 +9212,9 @@
         <v>3900</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H323">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9175257731958766</v>
       </c>
     </row>
@@ -9585,10 +9238,9 @@
         <v>3550</v>
       </c>
       <c r="G324" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H324">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2484472049689441</v>
       </c>
     </row>
@@ -9612,10 +9264,9 @@
         <v>4000</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H325">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2041884816753927</v>
       </c>
     </row>
@@ -9639,10 +9290,9 @@
         <v>3200</v>
       </c>
       <c r="G326" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H326">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0116279069767442</v>
       </c>
     </row>
@@ -9666,10 +9316,9 @@
         <v>4700</v>
       </c>
       <c r="G327" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H327">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4374999999999996</v>
       </c>
     </row>
@@ -9693,10 +9342,9 @@
         <v>3800</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H328">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9521276595744681</v>
       </c>
     </row>
@@ -9720,10 +9368,9 @@
         <v>4200</v>
       </c>
       <c r="G329" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H329">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8092783505154642</v>
       </c>
     </row>
@@ -9747,10 +9394,9 @@
         <v>2900</v>
       </c>
       <c r="G330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H330">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2705882352941176</v>
       </c>
     </row>
@@ -9774,10 +9420,9 @@
         <v>3775</v>
       </c>
       <c r="G331" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H331">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8195121951219511</v>
       </c>
     </row>
@@ -9801,10 +9446,9 @@
         <v>3350</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H332">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1</v>
       </c>
     </row>
@@ -9828,10 +9472,9 @@
         <v>3325</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H333">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2096774193548385</v>
       </c>
     </row>
@@ -9855,10 +9498,9 @@
         <v>3150</v>
       </c>
       <c r="G334" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H334">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1046511627906979</v>
       </c>
     </row>
@@ -9882,10 +9524,9 @@
         <v>3500</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H335">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9040404040404042</v>
       </c>
     </row>
@@ -9909,10 +9550,9 @@
         <v>3450</v>
       </c>
       <c r="G336" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H336">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3647058823529412</v>
       </c>
     </row>
@@ -9936,10 +9576,9 @@
         <v>3875</v>
       </c>
       <c r="G337" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H337">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2378378378378376</v>
       </c>
     </row>
@@ -9963,10 +9602,9 @@
         <v>3050</v>
       </c>
       <c r="G338" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H338">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2138364779874213</v>
       </c>
     </row>
@@ -9990,10 +9628,9 @@
         <v>4000</v>
       </c>
       <c r="G339" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H339">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1368421052631579</v>
       </c>
     </row>
@@ -10017,10 +9654,9 @@
         <v>3275</v>
       </c>
       <c r="G340" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H340">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2045454545454541</v>
       </c>
     </row>
@@ -10044,10 +9680,9 @@
         <v>4300</v>
       </c>
       <c r="G341" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H341">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2677595628415301</v>
       </c>
     </row>
@@ -10071,10 +9706,9 @@
         <v>3050</v>
       </c>
       <c r="G342" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H342">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2807017543859649</v>
       </c>
     </row>
@@ -10098,10 +9732,9 @@
         <v>4000</v>
       </c>
       <c r="G343" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H343">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -10125,10 +9758,9 @@
         <v>3325</v>
       </c>
       <c r="G344" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1508379888268156</v>
       </c>
     </row>
@@ -10152,10 +9784,9 @@
         <v>3500</v>
       </c>
       <c r="G345" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H345">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.244791666666667</v>
       </c>
     </row>
